--- a/diagnostics/emd/data/emdCalibration.xlsx
+++ b/diagnostics/emd/data/emdCalibration.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\exl50u\diagnostics\emd\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD4A45-4687-4D9D-9F3B-9DBFF82E70F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flux" sheetId="1" r:id="rId1"/>
@@ -520,14 +526,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,151 +536,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,192 +561,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519242"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -884,315 +582,53 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.49998474074526"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1442,1957 +878,1956 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="48" width="17.625" style="1" customWidth="1"/>
-    <col min="49" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="48" width="17.6328125" style="2" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:48" s="3" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="1">
-        <v>-0.000138482065591458</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.000264822502790514</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.000182979741578541</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.5358112954489e-5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-2.42475191151834e-5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>-1.22789333548641e-5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-7.54937124778074e-6</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4.86894787082838e-6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>-3.73025100062348e-6</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-3.42976090414259e-6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-3.73832246650594e-6</v>
-      </c>
-      <c r="M2" s="1">
-        <v>-4.67381471548535e-6</v>
-      </c>
-      <c r="N2" s="1">
-        <v>7.22978933976768e-6</v>
-      </c>
-      <c r="O2" s="1">
-        <v>-1.20751931021163e-5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>2.35183233831692e-5</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>5.32551586637481e-5</v>
-      </c>
-      <c r="R2" s="1">
-        <v>-0.000149046056818451</v>
-      </c>
-      <c r="S2" s="1">
-        <v>0.000213476247235166</v>
-      </c>
-      <c r="T2" s="1">
-        <v>-0.000142974698178715</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-9.06701490120933e-5</v>
-      </c>
-      <c r="V2" s="1">
-        <v>-8.97127734654482e-5</v>
-      </c>
-      <c r="W2" s="1">
-        <v>-8.98432078178038e-5</v>
-      </c>
-      <c r="X2" s="1">
-        <v>-8.6386304485008e-5</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>-8.52626041269568e-5</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>-6.65350102935655e-5</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>-6.70873563501938e-5</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>-6.14201502571118e-5</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>-6.07006651981353e-5</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>-5.17580965020218e-5</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>-1.4332694966028e-5</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>-1.27808447248598e-5</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>-1.2356229497135e-5</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>1.1866490606529e-5</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>-1.18715215752181e-5</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>-1.2536349678992e-5</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>-1.39662402584112e-5</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>-1.46624388994399e-5</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>-5.01409676178226e-5</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>-5.98809522942082e-5</v>
-      </c>
-      <c r="AO2" s="1">
-        <v>-6.29415955414214e-5</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>-6.55185169333898e-5</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>-6.80394324922934e-5</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>-8.04469147384515e-5</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>-5.75521477824024e-8</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>-8.8962993466601e-5</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>-8.55668258561752e-5</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>-9.18690204902296e-5</v>
+      <c r="B2" s="2">
+        <v>-1.3848206559145801E-4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.6482250279051398E-4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.82979741578541E-4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5.5358112954488998E-5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-2.4247519115183399E-5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1.22789333548641E-5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-7.5493712477807404E-6</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.8689478708283799E-6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-3.73025100062348E-6</v>
+      </c>
+      <c r="K2" s="2">
+        <v>-3.4297609041425902E-6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-3.7383224665059398E-6</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-4.67381471548535E-6</v>
+      </c>
+      <c r="N2" s="2">
+        <v>7.2297893397676797E-6</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-1.20751931021163E-5</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2.3518323383169199E-5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>5.3255158663748099E-5</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-1.49046056818451E-4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.13476247235166E-4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-1.4297469817871499E-4</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-9.0670149012093298E-5</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-8.9712773465448195E-5</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-8.9843207817803805E-5</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-8.6386304485008004E-5</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>-8.5262604126956805E-5</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-6.6535010293565505E-5</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-6.7087356350193795E-5</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-6.1420150257111798E-5</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-6.0700665198135302E-5</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-5.1758096502021802E-5</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>-1.4332694966027999E-5</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>-1.27808447248598E-5</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>-1.2356229497135E-5</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1.1866490606529001E-5</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>-1.18715215752181E-5</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>-1.2536349678992E-5</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>-1.39662402584112E-5</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>-1.46624388994399E-5</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>-5.0140967617822602E-5</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>-5.98809522942082E-5</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>-6.29415955414214E-5</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>-6.5518516933389803E-5</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-6.8039432492293406E-5</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>-8.0446914738451498E-5</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>-5.7552147782402403E-8</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>-8.8962993466600997E-5</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>-8.5566825856175195E-5</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>-9.1869020490229601E-5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1">
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="1">
-        <v>-4.04072327910115e-7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.48841657864782e-7</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.52623643345271e-7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4.04633776814233e-7</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-5.26920350790338e-7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-6.27261338198446e-7</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-6.99289770832674e-7</v>
-      </c>
-      <c r="I4" s="1">
-        <v>8.83333384721474e-7</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1.06270127326963e-6</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-1.47510405754186e-6</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1.88134170331311e-6</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-2.56709917867157e-6</v>
-      </c>
-      <c r="N4" s="1">
-        <v>3.47547258643281e-6</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-5.14743878628198e-6</v>
-      </c>
-      <c r="P4" s="1">
-        <v>7.56663129436921e-6</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>1.16260916873448e-5</v>
-      </c>
-      <c r="R4" s="1">
-        <v>-2.89394299238326e-5</v>
-      </c>
-      <c r="S4" s="1">
-        <v>5.70698265537178e-5</v>
-      </c>
-      <c r="T4" s="1">
-        <v>-9.91077893591868e-5</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-0.000171505151485004</v>
-      </c>
-      <c r="V4" s="1">
-        <v>-0.000197899566873326</v>
-      </c>
-      <c r="W4" s="1">
-        <v>-0.000219602317180295</v>
-      </c>
-      <c r="X4" s="1">
-        <v>-0.000224956584056946</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>-0.00022669041683817</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>-0.000156449914483547</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>-0.000154478089532381</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>-0.000139304898848988</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>-0.000135577445359825</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>-8.18574104854123e-5</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>-2.11001454213537e-5</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>-1.37944173131814e-5</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>-1.2471891017493e-5</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>6.29941631628009e-6</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>-1.0532245266065e-5</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>-5.35850057452013e-6</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>-4.97812938529546e-6</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>-3.11846504488971e-6</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>-6.47856050938012e-6</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>-3.05202148783948e-6</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>-2.76266359065247e-6</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>-2.56692016940123e-6</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>-2.38297208165568e-6</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>-1.24467362966565e-6</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>-7.15295004408583e-8</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>-9.21901642366047e-7</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>-7.85489489096513e-7</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>-5.22987758771568e-7</v>
+      <c r="B4" s="2">
+        <v>-4.04072327910115E-7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.4884165786478195E-7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.5262364334527097E-7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.04633776814233E-7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-5.2692035079033797E-7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-6.2726133819844601E-7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-6.9928977083267401E-7</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8.8333338472147403E-7</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-1.0627012732696299E-6</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-1.47510405754186E-6</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-1.88134170331311E-6</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-2.5670991786715698E-6</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.47547258643281E-6</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-5.1474387862819797E-6</v>
+      </c>
+      <c r="P4" s="2">
+        <v>7.5666312943692097E-6</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.16260916873448E-5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>-2.89394299238326E-5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5.7069826553717802E-5</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-9.9107789359186805E-5</v>
+      </c>
+      <c r="U4" s="2">
+        <v>-1.71505151485004E-4</v>
+      </c>
+      <c r="V4" s="2">
+        <v>-1.97899566873326E-4</v>
+      </c>
+      <c r="W4" s="2">
+        <v>-2.19602317180295E-4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>-2.2495658405694599E-4</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>-2.2669041683817001E-4</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>-1.5644991448354701E-4</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>-1.5447808953238099E-4</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>-1.39304898848988E-4</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>-1.3557744535982501E-4</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>-8.1857410485412302E-5</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>-2.1100145421353702E-5</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>-1.3794417313181401E-5</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>-1.2471891017492999E-5</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>6.2994163162800897E-6</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>-1.0532245266065001E-5</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>-5.3585005745201301E-6</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>-4.9781293852954603E-6</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>-3.11846504488971E-6</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>-6.4785605093801203E-6</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>-3.0520214878394798E-6</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>-2.76266359065247E-6</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>-2.5669201694012299E-6</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>-2.3829720816556799E-6</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>-1.24467362966565E-6</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>-7.1529500440858301E-8</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>-9.2190164236604703E-7</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>-7.8548948909651297E-7</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>-5.22987758771568E-7</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1">
-        <v>-9.86725035928115e-5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5.84825273466543e-5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.51862849440183e-5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.20005457182915e-5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-7.88948744967433e-6</v>
-      </c>
-      <c r="G5" s="1">
-        <v>-5.26231071232977e-6</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-3.70337166456769e-6</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.60781982650817e-6</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-1.83990570559042e-6</v>
-      </c>
-      <c r="K5" s="1">
-        <v>-1.53947146185006e-6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-1.04928892525203e-6</v>
-      </c>
-      <c r="M5" s="1">
-        <v>-9.03348764941189e-7</v>
-      </c>
-      <c r="N5" s="1">
-        <v>6.53004509032822e-7</v>
-      </c>
-      <c r="O5" s="1">
-        <v>-5.51456131872112e-7</v>
-      </c>
-      <c r="P5" s="1">
-        <v>5.69523104566121e-7</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2.83071781361671e-7</v>
-      </c>
-      <c r="R5" s="1">
-        <v>-5.71817981511243e-7</v>
-      </c>
-      <c r="S5" s="1">
-        <v>5.69817632531692e-7</v>
-      </c>
-      <c r="T5" s="1">
-        <v>-4.99069408456691e-7</v>
-      </c>
-      <c r="U5" s="1">
-        <v>-5.74358284440591e-7</v>
-      </c>
-      <c r="V5" s="1">
-        <v>-6.6832029192477e-7</v>
-      </c>
-      <c r="W5" s="1">
-        <v>-7.85938768988038e-7</v>
-      </c>
-      <c r="X5" s="1">
-        <v>-9.51137392926473e-7</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>-1.12291752578589e-6</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>-2.16123298748171e-6</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>-2.58255525936007e-6</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>-2.78430490052286e-6</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>-2.88033205079969e-6</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>-6.81202957782938e-6</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>-2.90912267309745e-6</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>-4.55252657174497e-6</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>-5.34057588158013e-6</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>1.07505230579607e-5</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>-6.29203491945539e-6</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>-1.26393668476648e-5</v>
-      </c>
-      <c r="AK5" s="1">
-        <v>-1.52755289956248e-5</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>-2.16696515553736e-5</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>-7.98358201369164e-5</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>-0.00013534669994713</v>
-      </c>
-      <c r="AO5" s="1">
-        <v>-0.000143851347068125</v>
-      </c>
-      <c r="AP5" s="1">
-        <v>-0.000152770446937248</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>-0.0001623604806189</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>-0.000217473100841174</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>-9.85259482051205e-8</v>
-      </c>
-      <c r="AT5" s="1">
-        <v>-0.000222613595298077</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>-0.000192637688621317</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>-0.000177630872223392</v>
+      <c r="B5" s="2">
+        <v>-9.8672503592811501E-5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.84825273466543E-5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.5186284944018303E-5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.2000545718291499E-5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-7.8894874496743307E-6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-5.2623107123297697E-6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-3.7033716645676901E-6</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.6078198265081702E-6</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1.8399057055904201E-6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>-1.53947146185006E-6</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-1.04928892525203E-6</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-9.0334876494118899E-7</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.5300450903282198E-7</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-5.5145613187211204E-7</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5.69523104566121E-7</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>2.8307178136167101E-7</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-5.7181798151124302E-7</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5.6981763253169205E-7</v>
+      </c>
+      <c r="T5" s="2">
+        <v>-4.9906940845669095E-7</v>
+      </c>
+      <c r="U5" s="2">
+        <v>-5.74358284440591E-7</v>
+      </c>
+      <c r="V5" s="2">
+        <v>-6.6832029192476997E-7</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-7.8593876898803798E-7</v>
+      </c>
+      <c r="X5" s="2">
+        <v>-9.5113739292647299E-7</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>-1.1229175257858899E-6</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>-2.1612329874817098E-6</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>-2.58255525936007E-6</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>-2.78430490052286E-6</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>-2.8803320507996899E-6</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>-6.8120295778293801E-6</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>-2.9091226730974501E-6</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>-4.5525265717449697E-6</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>-5.3405758815801297E-6</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1.07505230579607E-5</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>-6.2920349194553897E-6</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>-1.26393668476648E-5</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>-1.5275528995624799E-5</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>-2.1669651555373601E-5</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>-7.9835820136916398E-5</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>-1.3534669994712999E-4</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>-1.4385134706812499E-4</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>-1.52770446937248E-4</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>-1.623604806189E-4</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>-2.1747310084117399E-4</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>-9.8525948205120504E-8</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>-2.2261359529807701E-4</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>-1.9263768862131701E-4</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>-1.77630872223392E-4</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1">
-        <v>-1.60072812197056e-6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.89374635163495e-6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.19466043885744e-6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.34804641198411e-6</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-1.5139102711266e-6</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-1.83829023261154e-6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-2.3300894475175e-6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.73807935301302e-6</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-3.26208356950724e-6</v>
-      </c>
-      <c r="K6" s="1">
-        <v>-4.0535877263519e-6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-5.20783937431631e-6</v>
-      </c>
-      <c r="M6" s="1">
-        <v>-6.34470524131185e-6</v>
-      </c>
-      <c r="N6" s="1">
-        <v>8.08960306877259e-6</v>
-      </c>
-      <c r="O6" s="1">
-        <v>-1.05730541733952e-5</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1.33751551812577e-5</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1.73614828028377e-5</v>
-      </c>
-      <c r="R6" s="1">
-        <v>-3.61011786231323e-5</v>
-      </c>
-      <c r="S6" s="1">
-        <v>5.3194076238921e-5</v>
-      </c>
-      <c r="T6" s="1">
-        <v>-6.35317993437413e-5</v>
-      </c>
-      <c r="U6" s="1">
-        <v>-9.64765966925125e-5</v>
-      </c>
-      <c r="V6" s="1">
-        <v>-0.000118020892656746</v>
-      </c>
-      <c r="W6" s="1">
-        <v>-0.000145114232515634</v>
-      </c>
-      <c r="X6" s="1">
-        <v>-0.000171559383331457</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>-0.00020718054022038</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>-0.00047351467101864</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>-0.000550274863295695</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>-0.000567300596780193</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>-0.000607665330979652</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>-0.000314379027745977</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>-7.96306219992017e-5</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>-4.78684495004439e-5</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>-4.29902137645983e-5</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>2.13585931025284e-5</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>-3.59521682149239e-5</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>-1.82863655960525e-5</v>
-      </c>
-      <c r="AK6" s="1">
-        <v>-1.67968546673567e-5</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>-1.03356625234455e-5</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>-2.24305871126852e-5</v>
-      </c>
-      <c r="AN6" s="1">
-        <v>-1.02838362380597e-5</v>
-      </c>
-      <c r="AO6" s="1">
-        <v>-9.59903237833666e-6</v>
-      </c>
-      <c r="AP6" s="1">
-        <v>-8.92008784335895e-6</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>-8.21858637375922e-6</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>-4.03864957484207e-6</v>
-      </c>
-      <c r="AS6" s="1">
-        <v>-6.15524390757508e-9</v>
-      </c>
-      <c r="AT6" s="1">
-        <v>-3.1965247816843e-6</v>
-      </c>
-      <c r="AU6" s="1">
-        <v>-2.4838614819603e-6</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>-2.18196078768046e-6</v>
+      <c r="B6" s="2">
+        <v>-1.60072812197056E-6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.89374635163495E-6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.1946604388574398E-6</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.3480464119841099E-6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1.5139102711266E-6</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1.83829023261154E-6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-2.3300894475175002E-6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.7380793530130198E-6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-3.2620835695072398E-6</v>
+      </c>
+      <c r="K6" s="2">
+        <v>-4.0535877263519E-6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-5.2078393743163103E-6</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-6.3447052413118499E-6</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8.0896030687725899E-6</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-1.0573054173395199E-5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.3375155181257701E-5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.7361482802837699E-5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>-3.6101178623132302E-5</v>
+      </c>
+      <c r="S6" s="2">
+        <v>5.3194076238920998E-5</v>
+      </c>
+      <c r="T6" s="2">
+        <v>-6.3531799343741302E-5</v>
+      </c>
+      <c r="U6" s="2">
+        <v>-9.6476596692512501E-5</v>
+      </c>
+      <c r="V6" s="2">
+        <v>-1.18020892656746E-4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>-1.4511423251563401E-4</v>
+      </c>
+      <c r="X6" s="2">
+        <v>-1.7155938333145699E-4</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>-2.0718054022037999E-4</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>-4.7351467101863998E-4</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>-5.5027486329569503E-4</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>-5.6730059678019305E-4</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>-6.0766533097965196E-4</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>-3.14379027745977E-4</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>-7.9630621999201705E-5</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>-4.7868449500443902E-5</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>-4.2990213764598301E-5</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>2.1358593102528398E-5</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>-3.5952168214923901E-5</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>-1.82863655960525E-5</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>-1.6796854667356699E-5</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>-1.03356625234455E-5</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>-2.24305871126852E-5</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>-1.0283836238059701E-5</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>-9.5990323783366594E-6</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>-8.9200878433589493E-6</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>-8.2185863737592202E-6</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>-4.0386495748420704E-6</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>-6.1552439075750797E-9</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>-3.1965247816842999E-6</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>-2.4838614819602999E-6</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>-2.1819607876804599E-6</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1">
-        <v>-6.00680095753622e-5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5.15250424600614e-5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4.16649849574509e-5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.68561998275012e-5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-1.31250733218605e-5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>-1.00734272515873e-5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-8.23985448237988e-6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>6.25070370768812e-6</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-4.84616193448973e-6</v>
-      </c>
-      <c r="K7" s="1">
-        <v>-3.88643898833365e-6</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-3.31703502544195e-6</v>
-      </c>
-      <c r="M7" s="1">
-        <v>-2.46783451369982e-6</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2.13822140477108e-6</v>
-      </c>
-      <c r="O7" s="1">
-        <v>-1.77581485460803e-6</v>
-      </c>
-      <c r="P7" s="1">
-        <v>1.43593890642003e-6</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>1.27498528614705e-6</v>
-      </c>
-      <c r="R7" s="1">
-        <v>-1.73871874178855e-6</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1.74221309083175e-6</v>
-      </c>
-      <c r="T7" s="1">
-        <v>-1.50714439777241e-6</v>
-      </c>
-      <c r="U7" s="1">
-        <v>-1.95207804689538e-6</v>
-      </c>
-      <c r="V7" s="1">
-        <v>-2.46005245916717e-6</v>
-      </c>
-      <c r="W7" s="1">
-        <v>-3.01084934410427e-6</v>
-      </c>
-      <c r="X7" s="1">
-        <v>-3.42553647440139e-6</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>-3.9750603854047e-6</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>-7.40326985966194e-6</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>-8.47659815028584e-6</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>-8.70822691439251e-6</v>
-      </c>
-      <c r="AC7" s="1">
-        <v>-9.67706712603924e-6</v>
-      </c>
-      <c r="AD7" s="1">
-        <v>-2.19460264814307e-5</v>
-      </c>
-      <c r="AE7" s="1">
-        <v>-9.66168469639991e-6</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>-1.47301411307334e-5</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>-1.7502118453128e-5</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>3.45868610603912e-5</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>-2.03169540240012e-5</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>-4.1113131247273e-5</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>-4.98964198360533e-5</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>-7.65193495074537e-5</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>-0.000290564370982495</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>-0.00057369465571436</v>
-      </c>
-      <c r="AO7" s="1">
-        <v>-0.000554695446156101</v>
-      </c>
-      <c r="AP7" s="1">
-        <v>-0.000515308770057599</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>-0.000465046661124318</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>-0.000187365799079144</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>9.93841726898527e-9</v>
-      </c>
-      <c r="AT7" s="1">
-        <v>-0.000138971572608174</v>
-      </c>
-      <c r="AU7" s="1">
-        <v>-0.000108638940478764</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>-9.46472897701685e-5</v>
+      <c r="B7" s="2">
+        <v>-6.0068009575362199E-5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.1525042460061399E-5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4.16649849574509E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.6856199827501201E-5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1.3125073321860501E-5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1.0073427251587299E-5</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-8.2398544823798794E-6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6.2507037076881204E-6</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-4.8461619344897304E-6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>-3.8864389883336498E-6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>-3.3170350254419501E-6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-2.4678345136998199E-6</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.1382214047710802E-6</v>
+      </c>
+      <c r="O7" s="2">
+        <v>-1.77581485460803E-6</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.4359389064200301E-6</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.2749852861470501E-6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>-1.7387187417885501E-6</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.74221309083175E-6</v>
+      </c>
+      <c r="T7" s="2">
+        <v>-1.5071443977724099E-6</v>
+      </c>
+      <c r="U7" s="2">
+        <v>-1.95207804689538E-6</v>
+      </c>
+      <c r="V7" s="2">
+        <v>-2.46005245916717E-6</v>
+      </c>
+      <c r="W7" s="2">
+        <v>-3.0108493441042701E-6</v>
+      </c>
+      <c r="X7" s="2">
+        <v>-3.4255364744013899E-6</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>-3.9750603854046997E-6</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>-7.4032698596619401E-6</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>-8.4765981502858395E-6</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>-8.7082269143925107E-6</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>-9.6770671260392401E-6</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>-2.1946026481430699E-5</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>-9.6616846963999102E-6</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>-1.47301411307334E-5</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>-1.7502118453127999E-5</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>3.4586861060391199E-5</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>-2.03169540240012E-5</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>-4.1113131247273003E-5</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>-4.9896419836053297E-5</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>-7.6519349507453703E-5</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>-2.9056437098249499E-4</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>-5.7369465571436001E-4</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>-5.5469544615610101E-4</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>-5.1530877005759898E-4</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>-4.6504666112431799E-4</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>-1.8736579907914399E-4</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>9.93841726898527E-9</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>-1.3897157260817401E-4</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>-1.08638940478764E-4</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>-9.4647289770168503E-5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1">
-        <v>-4.55769200896951e-6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5.28530176287688e-6</v>
-      </c>
-      <c r="D8" s="1">
-        <v>6.08055908249406e-6</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.59715995579573e-6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>-4.16795910500738e-6</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-4.79184168912152e-6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-5.81463548082043e-6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>6.46564420301426e-6</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-7.62638159455718e-6</v>
-      </c>
-      <c r="K8" s="1">
-        <v>-9.01342018770818e-6</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-1.04895641595626e-5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-1.20267838601432e-5</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.35034768612229e-5</v>
-      </c>
-      <c r="O8" s="1">
-        <v>-1.54118509912559e-5</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1.6721582098307e-5</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1.8266682932748e-5</v>
-      </c>
-      <c r="R8" s="1">
-        <v>-3.17869316953058e-5</v>
-      </c>
-      <c r="S8" s="1">
-        <v>3.55466026249336e-5</v>
-      </c>
-      <c r="T8" s="1">
-        <v>-3.81606018039474e-5</v>
-      </c>
-      <c r="U8" s="1">
-        <v>-5.32225245457128e-5</v>
-      </c>
-      <c r="V8" s="1">
-        <v>-6.43991552241776e-5</v>
-      </c>
-      <c r="W8" s="1">
-        <v>-7.82323145227479e-5</v>
-      </c>
-      <c r="X8" s="1">
-        <v>-9.13010726072699e-5</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>-0.000108610960512202</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>-0.000223139962323265</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>-0.000258963484201059</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>-0.000272736969726997</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>-0.000308515159252175</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>-0.000823378883923648</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>-0.000313572530731955</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>-0.000145277368271817</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>-0.000127463997704304</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>6.14232224558386e-5</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>-0.000104813397393458</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>-5.27161792728652e-5</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>-4.8214971450221e-5</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>-2.97200128968567e-5</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>-6.49447908520681e-5</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>-2.93040645377811e-5</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>-2.73301955658266e-5</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>-2.55006121887356e-5</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>-2.34016341682912e-5</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>-1.14469867018328e-5</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>-1.50904471621227e-8</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>-8.92288016008821e-6</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>-7.16503219698895e-6</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>-6.35793506106189e-6</v>
+      <c r="B8" s="2">
+        <v>-4.5576920089695099E-6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5.2853017628768801E-6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6.0805590824940602E-6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.59715995579573E-6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-4.1679591050073801E-6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-4.7918416891215199E-6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-5.8146354808204303E-6</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6.4656442030142597E-6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-7.6263815945571803E-6</v>
+      </c>
+      <c r="K8" s="2">
+        <v>-9.0134201877081801E-6</v>
+      </c>
+      <c r="L8" s="2">
+        <v>-1.04895641595626E-5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-1.2026783860143199E-5</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.35034768612229E-5</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-1.5411850991255899E-5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.6721582098307E-5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.8266682932747999E-5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>-3.1786931695305803E-5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3.5546602624933599E-5</v>
+      </c>
+      <c r="T8" s="2">
+        <v>-3.8160601803947401E-5</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-5.3222524545712801E-5</v>
+      </c>
+      <c r="V8" s="2">
+        <v>-6.4399155224177605E-5</v>
+      </c>
+      <c r="W8" s="2">
+        <v>-7.8232314522747899E-5</v>
+      </c>
+      <c r="X8" s="2">
+        <v>-9.13010726072699E-5</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>-1.0861096051220199E-4</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>-2.2313996232326501E-4</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>-2.5896348420105899E-4</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>-2.7273696972699698E-4</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>-3.0851515925217501E-4</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>-8.2337888392364797E-4</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>-3.1357253073195499E-4</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>-1.4527736827181701E-4</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>-1.2746399770430399E-4</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>6.1423222455838606E-5</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>-1.04813397393458E-4</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>-5.2716179272865197E-5</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>-4.8214971450221002E-5</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>-2.9720012896856699E-5</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>-6.4944790852068099E-5</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>-2.9304064537781101E-5</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>-2.7330195565826599E-5</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>-2.5500612188735601E-5</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>-2.3401634168291199E-5</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>-1.14469867018328E-5</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>-1.50904471621227E-8</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>-8.9228801600882098E-6</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>-7.1650321969889503E-6</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>-6.3579350610618899E-6</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="1">
-        <v>-3.84199047925613e-5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3.94437803939879e-5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.89868137344835e-5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.8789542416586e-5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1.75627845416446e-5</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1.56977523633778e-5</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-1.45468012922656e-5</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.208166410318e-5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-1.05519285556208e-5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>-9.21589299627438e-6</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-7.95067971132282e-6</v>
-      </c>
-      <c r="M9" s="1">
-        <v>-6.77448418501877e-6</v>
-      </c>
-      <c r="N9" s="1">
-        <v>5.64647216420282e-6</v>
-      </c>
-      <c r="O9" s="1">
-        <v>-4.76632233527818e-6</v>
-      </c>
-      <c r="P9" s="1">
-        <v>4.00619907423065e-6</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>3.67859611990027e-6</v>
-      </c>
-      <c r="R9" s="1">
-        <v>-5.16254809021146e-6</v>
-      </c>
-      <c r="S9" s="1">
-        <v>4.68268870353872e-6</v>
-      </c>
-      <c r="T9" s="1">
-        <v>-4.76907521584074e-6</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-6.29521666553706e-6</v>
-      </c>
-      <c r="V9" s="1">
-        <v>-7.46169469005419e-6</v>
-      </c>
-      <c r="W9" s="1">
-        <v>-8.88598303776127e-6</v>
-      </c>
-      <c r="X9" s="1">
-        <v>-1.03837131300224e-5</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>-1.21705123192852e-5</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>-2.30286935714441e-5</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>-2.62898735760287e-5</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>-2.71448717101591e-5</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>-3.00899575769625e-5</v>
-      </c>
-      <c r="AD9" s="1">
-        <v>-6.71701398579243e-5</v>
-      </c>
-      <c r="AE9" s="1">
-        <v>-2.97034763677766e-5</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>-4.49780879403671e-5</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>-5.33433998847086e-5</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0.000107172762753989</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>-6.16614006447379e-5</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>-0.000129523626001441</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>-0.000160111706228224</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>-0.000315502577098165</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>-0.000819178845080863</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>-0.000312986972923462</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>-0.000286376550939592</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>-0.000260493486990693</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>-0.000235181825563189</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>-0.000105309403182594</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>-4.19424010267816e-8</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>-8.02956657942537e-5</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>-6.36508428781071e-5</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>-5.59932478169054e-5</v>
+      <c r="B9" s="2">
+        <v>-3.8419904792561301E-5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.9443780393987897E-5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.8986813734483498E-5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.8789542416586001E-5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1.75627845416446E-5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1.5697752363377801E-5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-1.45468012922656E-5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.208166410318E-5</v>
+      </c>
+      <c r="J9" s="2">
+        <v>-1.0551928555620801E-5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>-9.21589299627438E-6</v>
+      </c>
+      <c r="L9" s="2">
+        <v>-7.9506797113228201E-6</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-6.7744841850187701E-6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>5.6464721642028198E-6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>-4.7663223352781798E-6</v>
+      </c>
+      <c r="P9" s="2">
+        <v>4.0061990742306501E-6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.6785961199002701E-6</v>
+      </c>
+      <c r="R9" s="2">
+        <v>-5.16254809021146E-6</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4.68268870353872E-6</v>
+      </c>
+      <c r="T9" s="2">
+        <v>-4.7690752158407397E-6</v>
+      </c>
+      <c r="U9" s="2">
+        <v>-6.2952166655370596E-6</v>
+      </c>
+      <c r="V9" s="2">
+        <v>-7.4616946900541899E-6</v>
+      </c>
+      <c r="W9" s="2">
+        <v>-8.8859830377612703E-6</v>
+      </c>
+      <c r="X9" s="2">
+        <v>-1.0383713130022401E-5</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>-1.2170512319285199E-5</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>-2.3028693571444099E-5</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>-2.62898735760287E-5</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>-2.71448717101591E-5</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>-3.00899575769625E-5</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>-6.7170139857924296E-5</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>-2.9703476367776599E-5</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>-4.4978087940367101E-5</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>-5.3343399884708599E-5</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1.0717276275398899E-4</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>-6.1661400644737904E-5</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>-1.2952362600144099E-4</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>-1.6011170622822401E-4</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>-3.1550257709816499E-4</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>-8.1917884508086298E-4</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>-3.1298697292346202E-4</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>-2.8637655093959199E-4</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>-2.6049348699069298E-4</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>-2.3518182556318899E-4</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>-1.05309403182594E-4</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>-4.1942401026781598E-8</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>-8.0295665794253703E-5</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>-6.3650842878107102E-5</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>-5.5993247816905401E-5</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="1">
-        <v>-3.21136558541069e-5</v>
-      </c>
-      <c r="C10" s="1">
-        <v>3.58371196690113e-5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.98992836986795e-5</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.20650581804039e-5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-2.42021053200085e-5</v>
-      </c>
-      <c r="G10" s="1">
-        <v>-2.54010368187466e-5</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-2.79568697549231e-5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2.8006681970888e-5</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-2.86164994634989e-5</v>
-      </c>
-      <c r="K10" s="1">
-        <v>-2.93242372467228e-5</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-2.88703933713735e-5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>-2.80649301697588e-5</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2.65502532349445e-5</v>
-      </c>
-      <c r="O10" s="1">
-        <v>-2.56932496515997e-5</v>
-      </c>
-      <c r="P10" s="1">
-        <v>2.36377583289162e-5</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2.19527544617883e-5</v>
-      </c>
-      <c r="R10" s="1">
-        <v>-3.32192107713318e-5</v>
-      </c>
-      <c r="S10" s="1">
-        <v>2.5074703854022e-7</v>
-      </c>
-      <c r="T10" s="1">
-        <v>-3.26132818363888e-5</v>
-      </c>
-      <c r="U10" s="1">
-        <v>-4.36018075171162e-5</v>
-      </c>
-      <c r="V10" s="1">
-        <v>-5.25274459804896e-5</v>
-      </c>
-      <c r="W10" s="1">
-        <v>-6.32903203526075e-5</v>
-      </c>
-      <c r="X10" s="1">
-        <v>-7.32853207535744e-5</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>-8.63628209737319e-5</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>-0.000165437547350278</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>-0.000189187345325528</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>-0.000196117750786792</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>-0.000218070912267113</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>-0.000511456095576903</v>
-      </c>
-      <c r="AE10" s="1">
-        <v>-0.000237305881327589</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>-0.000359580411520942</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>-0.000403630828188116</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>0.000420527874206928</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>-0.000416676401369173</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>-0.00040522834765462</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>-0.000391437062418739</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>-0.000239056293330122</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>-0.000499125543236853</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>-0.000215229814171339</v>
-      </c>
-      <c r="AO10" s="1">
-        <v>-0.000200369140817357</v>
-      </c>
-      <c r="AP10" s="1">
-        <v>-0.000185085457075164</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>-0.000169577922788857</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>-8.15290747420366e-5</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>-2.96771268569471e-8</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>-6.31242993941084e-5</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>-5.04788822202583e-5</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>-4.47904446594755e-5</v>
+      <c r="B10" s="2">
+        <v>-3.21136558541069E-5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.5837119669011302E-5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3.9899283698679497E-5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.2065058180403901E-5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-2.4202105320008499E-5</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-2.5401036818746598E-5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-2.79568697549231E-5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.8006681970888001E-5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>-2.8616499463498899E-5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>-2.9324237246722799E-5</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-2.88703933713735E-5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-2.8064930169758801E-5</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2.65502532349445E-5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>-2.5693249651599699E-5</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2.36377583289162E-5</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>2.1952754461788301E-5</v>
+      </c>
+      <c r="R10" s="2">
+        <v>-3.3219210771331799E-5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2.5074703854021998E-7</v>
+      </c>
+      <c r="T10" s="2">
+        <v>-3.2613281836388802E-5</v>
+      </c>
+      <c r="U10" s="2">
+        <v>-4.3601807517116202E-5</v>
+      </c>
+      <c r="V10" s="2">
+        <v>-5.2527445980489599E-5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>-6.3290320352607504E-5</v>
+      </c>
+      <c r="X10" s="2">
+        <v>-7.3285320753574404E-5</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>-8.6362820973731906E-5</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>-1.65437547350278E-4</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>-1.89187345325528E-4</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>-1.96117750786792E-4</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>-2.1807091226711301E-4</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>-5.1145609557690303E-4</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>-2.37305881327589E-4</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>-3.5958041152094202E-4</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>-4.03630828188116E-4</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>4.2052787420692801E-4</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>-4.1667640136917303E-4</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>-4.0522834765461998E-4</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>-3.9143706241873897E-4</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>-2.3905629333012199E-4</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>-4.9912554323685296E-4</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>-2.1522981417133901E-4</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>-2.0036914081735701E-4</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>-1.8508545707516399E-4</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>-1.6957792278885701E-4</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>-8.15290747420366E-5</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>-2.9677126856947099E-8</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>-6.3124299394108396E-5</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>-5.04788822202583E-5</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>-4.4790444659475503E-5</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:48">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="1">
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:48">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="1">
-        <v>-6.77616882324848e-5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.000115288132031333</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.000145120348089358</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.000165347641195504</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-0.000171433264406097</v>
-      </c>
-      <c r="G14" s="1">
-        <v>-0.000170426469087906</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-0.000179677940584079</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.000173208707955777</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-0.000172808367053575</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-0.000175917565355295</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-0.000175486656242568</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-0.000174707950746228</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0.00017186350051428</v>
-      </c>
-      <c r="O14" s="1">
-        <v>-0.000174312803789996</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.000168898775083234</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>0.000165798159174451</v>
-      </c>
-      <c r="R14" s="1">
-        <v>-0.000120578230105047</v>
-      </c>
-      <c r="S14" s="1">
-        <v>2.1026454034045e-8</v>
-      </c>
-      <c r="T14" s="1">
-        <v>-6.65410579859167e-5</v>
-      </c>
-      <c r="U14" s="1">
-        <v>-4.91482403069784e-5</v>
-      </c>
-      <c r="V14" s="1">
-        <v>-5.11925151129222e-5</v>
-      </c>
-      <c r="W14" s="1">
-        <v>-5.38449646025724e-5</v>
-      </c>
-      <c r="X14" s="1">
-        <v>-5.47783271033047e-5</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>-5.71207817494438e-5</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>-5.88348808952079e-5</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>-6.16964149014013e-5</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>-5.87909357313683e-5</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>-6.03698413182876e-5</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>-7.74893933642018e-5</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>-2.54140570652835e-5</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>-3.04299709228422e-5</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>-3.26566476374853e-5</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>3.34870997573184e-5</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>-3.3147150627494e-5</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>-3.27521118935338e-5</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>-3.30795884376482e-5</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>-2.55495536473213e-5</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>-7.52895864255218e-5</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>-5.98400696521499e-5</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>-6.04011231707316e-5</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>-6.0692025959184e-5</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>-6.07379239329356e-5</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>-5.45458476410966e-5</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>9.2827825351716e-9</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>-5.45767317846376e-5</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>-5.00325752116939e-5</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>-5.14220723994789e-5</v>
+      <c r="B14" s="2">
+        <v>-6.77616882324848E-5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.1528813203133299E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.45120348089358E-4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.6534764119550399E-4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1.71433264406097E-4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1.7042646908790599E-4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-1.7967794058407899E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1.7320870795577701E-4</v>
+      </c>
+      <c r="J14" s="2">
+        <v>-1.72808367053575E-4</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-1.7591756535529501E-4</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-1.75486656242568E-4</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-1.7470795074622799E-4</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.7186350051428E-4</v>
+      </c>
+      <c r="O14" s="2">
+        <v>-1.74312803789996E-4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.6889877508323401E-4</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.65798159174451E-4</v>
+      </c>
+      <c r="R14" s="2">
+        <v>-1.2057823010504701E-4</v>
+      </c>
+      <c r="S14" s="2">
+        <v>2.1026454034044999E-8</v>
+      </c>
+      <c r="T14" s="2">
+        <v>-6.6541057985916699E-5</v>
+      </c>
+      <c r="U14" s="2">
+        <v>-4.9148240306978402E-5</v>
+      </c>
+      <c r="V14" s="2">
+        <v>-5.11925151129222E-5</v>
+      </c>
+      <c r="W14" s="2">
+        <v>-5.38449646025724E-5</v>
+      </c>
+      <c r="X14" s="2">
+        <v>-5.4778327103304698E-5</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>-5.71207817494438E-5</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>-5.8834880895207899E-5</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>-6.1696414901401295E-5</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>-5.8790935731368297E-5</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>-6.0369841318287597E-5</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>-7.7489393364201797E-5</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>-2.5414057065283499E-5</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>-3.0429970922842199E-5</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>-3.2656647637485301E-5</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>3.3487099757318399E-5</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>-3.3147150627493998E-5</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>-3.27521118935338E-5</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>-3.3079588437648203E-5</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>-2.5549553647321299E-5</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>-7.5289586425521794E-5</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>-5.9840069652149902E-5</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>-6.0401123170731603E-5</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>-6.0692025959184002E-5</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>-6.0737923932935603E-5</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>-5.4545847641096602E-5</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>9.2827825351716002E-9</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>-5.45767317846376E-5</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>-5.0032575211693901E-5</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>-5.1422072399478899E-5</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:48">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:48" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="1">
-        <v>5.00570409598449e-8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>-6.20867958673454e-8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-7.93112024487308e-8</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-3.16479488791538e-8</v>
-      </c>
-      <c r="F15" s="1">
-        <v>-1.78051878034817e-8</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-9.77911787499401e-9</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.75414533435531e-8</v>
-      </c>
-      <c r="I15" s="1">
-        <v>-3.39461766238977e-8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-5.79865754313556e-10</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3.721299555858e-10</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-6.59247745149222e-9</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1.00195669408264e-8</v>
-      </c>
-      <c r="N15" s="1">
-        <v>-4.03242199588133e-8</v>
-      </c>
-      <c r="O15" s="1">
-        <v>-2.21144796510877e-8</v>
-      </c>
-      <c r="P15" s="1">
-        <v>-1.93121633774106e-8</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>-2.4623980644191e-8</v>
-      </c>
-      <c r="R15" s="1">
-        <v>-9.75291613661563e-10</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-2.20937160808606e-8</v>
-      </c>
-      <c r="T15" s="1">
-        <v>-5.09637122281221e-9</v>
-      </c>
-      <c r="U15" s="1">
-        <v>-1.29900141189833e-8</v>
-      </c>
-      <c r="V15" s="1">
-        <v>2.12537190669253e-8</v>
-      </c>
-      <c r="W15" s="1">
-        <v>8.37647082774284e-10</v>
-      </c>
-      <c r="X15" s="1">
-        <v>5.3876980893435e-8</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>3.753354943746e-8</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>-4.79219386933709e-8</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>5.10796898329322e-8</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>2.5654639347094e-8</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>4.20607026370509e-8</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>1.60089609360463e-8</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>-3.90598243936681e-8</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>-2.62619699090644e-8</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>-2.59747019510956e-8</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>-3.80035718401022e-8</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>-4.25824571062815e-8</v>
-      </c>
-      <c r="AJ15" s="1">
-        <v>5.5207067153933e-9</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>2.62070956181154e-8</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>1.92189916620468e-8</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>3.6867142532276e-7</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>6.06176171102352e-7</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>5.39387074872613e-7</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>5.4782601274861e-7</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>5.19564861701836e-7</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>1.74994836337235e-7</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>-3.00735643422806e-11</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>9.93365555366639e-8</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>7.43896071264856e-8</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>-4.88513228207562e-8</v>
+      <c r="B15" s="2">
+        <v>5.00570409598449E-8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-6.2086795867345396E-8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-7.9311202448730798E-8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-3.1647948879153803E-8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1.7805187803481699E-8</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-9.7791178749940097E-9</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.7541453343553099E-8</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-3.3946176623897703E-8</v>
+      </c>
+      <c r="J15" s="2">
+        <v>-5.79865754313556E-10</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3.721299555858E-10</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-6.5924774514922202E-9</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1.00195669408264E-8</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-4.0324219958813302E-8</v>
+      </c>
+      <c r="O15" s="2">
+        <v>-2.21144796510877E-8</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-1.9312163377410601E-8</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-2.4623980644190999E-8</v>
+      </c>
+      <c r="R15" s="2">
+        <v>-9.7529161366156294E-10</v>
+      </c>
+      <c r="S15" s="2">
+        <v>-2.2093716080860599E-8</v>
+      </c>
+      <c r="T15" s="2">
+        <v>-5.0963712228122101E-9</v>
+      </c>
+      <c r="U15" s="2">
+        <v>-1.2990014118983301E-8</v>
+      </c>
+      <c r="V15" s="2">
+        <v>2.12537190669253E-8</v>
+      </c>
+      <c r="W15" s="2">
+        <v>8.3764708277428397E-10</v>
+      </c>
+      <c r="X15" s="2">
+        <v>5.3876980893435E-8</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>3.7533549437460001E-8</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>-4.7921938693370898E-8</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>5.1079689832932199E-8</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>2.5654639347093999E-8</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>4.2060702637050898E-8</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>1.6008960936046301E-8</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>-3.9059824393668102E-8</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>-2.62619699090644E-8</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>-2.59747019510956E-8</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>-3.8003571840102199E-8</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>-4.2582457106281499E-8</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>5.5207067153933004E-9</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>2.6207095618115399E-8</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>1.92189916620468E-8</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>3.6867142532276001E-7</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>6.0617617110235205E-7</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>5.3938707487261301E-7</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>5.4782601274861004E-7</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>5.1956486170183602E-7</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>1.74994836337235E-7</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>-3.0073564342280599E-11</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>9.9336555536663901E-8</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>7.43896071264856E-8</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>-4.88513228207562E-8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:BA11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="53" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="53" width="17.6328125" style="1" customWidth="1"/>
     <col min="54" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="1" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3553,168 +2988,168 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="2" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.000483883485715491</v>
+        <v>-4.83883485715491E-4</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.000787895243020684</v>
+        <v>-7.8789524302068403E-4</v>
       </c>
       <c r="D2" s="1">
-        <v>0.000331035776427779</v>
+        <v>3.3103577642777898E-4</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000171059923612292</v>
+        <v>1.71059923612292E-4</v>
       </c>
       <c r="F2" s="1">
-        <v>0.000100439223548426</v>
+        <v>1.0043922354842601E-4</v>
       </c>
       <c r="G2" s="1">
-        <v>6.05740091678694e-5</v>
+        <v>6.0574009167869399E-5</v>
       </c>
       <c r="H2" s="1">
-        <v>4.65468820924648e-5</v>
+        <v>4.6546882092464797E-5</v>
       </c>
       <c r="I2" s="1">
-        <v>4.04425972587017e-5</v>
+        <v>4.04425972587017E-5</v>
       </c>
       <c r="J2" s="1">
-        <v>3.98987813733323e-5</v>
+        <v>3.9898781373332299E-5</v>
       </c>
       <c r="K2" s="1">
-        <v>4.72922436966806e-5</v>
+        <v>4.72922436966806E-5</v>
       </c>
       <c r="L2" s="1">
-        <v>6.24269295284375e-5</v>
+        <v>6.2426929528437499E-5</v>
       </c>
       <c r="M2" s="1">
-        <v>9.78914636747348e-5</v>
+        <v>9.7891463674734799E-5</v>
       </c>
       <c r="N2" s="1">
-        <v>0.000166351006715668</v>
+        <v>1.66351006715668E-4</v>
       </c>
       <c r="O2" s="1">
-        <v>0.00030848664378821</v>
+        <v>3.0848664378820998E-4</v>
       </c>
       <c r="P2" s="1">
-        <v>-0.000530031302601528</v>
+        <v>-5.3003130260152796E-4</v>
       </c>
       <c r="Q2" s="1">
-        <v>-0.000735385163349918</v>
+        <v>-7.3538516334991798E-4</v>
       </c>
       <c r="R2" s="1">
-        <v>0.000445179082293275</v>
+        <v>4.4517908229327498E-4</v>
       </c>
       <c r="S2" s="1">
-        <v>0.000269426159911853</v>
+        <v>2.6942615991185298E-4</v>
       </c>
       <c r="T2" s="1">
-        <v>0.00017814830351018</v>
+        <v>1.7814830351018E-4</v>
       </c>
       <c r="U2" s="1">
-        <v>0.000122552276122256</v>
+        <v>1.22552276122256E-4</v>
       </c>
       <c r="V2" s="1">
-        <v>8.70325195136123e-5</v>
+        <v>8.7032519513612294E-5</v>
       </c>
       <c r="W2" s="1">
-        <v>6.19473177963342e-5</v>
+        <v>6.1947317796334206E-5</v>
       </c>
       <c r="X2" s="1">
-        <v>4.60284473314245e-5</v>
+        <v>4.60284473314245E-5</v>
       </c>
       <c r="Y2" s="1">
-        <v>3.42391153947411e-5</v>
+        <v>3.4239115394741101E-5</v>
       </c>
       <c r="Z2" s="1">
-        <v>2.63497905730754e-5</v>
+        <v>2.63497905730754E-5</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.93985144275928e-5</v>
+        <v>1.9398514427592798E-5</v>
       </c>
       <c r="AB2" s="1">
-        <v>1.17969855984976e-5</v>
+        <v>1.17969855984976E-5</v>
       </c>
       <c r="AC2" s="1">
-        <v>6.34085963061988e-6</v>
+        <v>6.3408596306198799E-6</v>
       </c>
       <c r="AD2" s="1">
-        <v>5.96040128572902e-6</v>
+        <v>5.9604012857290201E-6</v>
       </c>
       <c r="AE2" s="1">
-        <v>3.91795995379643e-6</v>
+        <v>3.9179599537964298E-6</v>
       </c>
       <c r="AF2" s="1">
-        <v>2.18885609284103e-6</v>
+        <v>2.1888560928410299E-6</v>
       </c>
       <c r="AG2" s="1">
-        <v>4.54887423622263e-7</v>
+        <v>4.54887423622263E-7</v>
       </c>
       <c r="AH2" s="1">
-        <v>-8.50922335954376e-7</v>
+        <v>-8.5092233595437595E-7</v>
       </c>
       <c r="AI2" s="1">
-        <v>-1.39068574374288e-6</v>
+        <v>-1.39068574374288E-6</v>
       </c>
       <c r="AJ2" s="1">
-        <v>-1.31752068535529e-6</v>
+        <v>-1.3175206853552899E-6</v>
       </c>
       <c r="AK2" s="1">
-        <v>-1.3317008360782e-6</v>
+        <v>-1.3317008360781999E-6</v>
       </c>
       <c r="AL2" s="1">
-        <v>-1.29234824127364e-6</v>
+        <v>-1.29234824127364E-6</v>
       </c>
       <c r="AM2" s="1">
-        <v>2.00386100956133e-6</v>
+        <v>2.0038610095613299E-6</v>
       </c>
       <c r="AN2" s="1">
-        <v>3.79563849664881e-6</v>
+        <v>3.7956384966488099E-6</v>
       </c>
       <c r="AO2" s="1">
-        <v>5.89418931317116e-6</v>
+        <v>5.8941893131711599E-6</v>
       </c>
       <c r="AP2" s="1">
-        <v>3.50915388206534e-9</v>
+        <v>3.5091538820653401E-9</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1.38531775225307e-18</v>
+        <v>1.38531775225307E-18</v>
       </c>
       <c r="AR2" s="1">
-        <v>1.43011701550241e-8</v>
+        <v>1.43011701550241E-8</v>
       </c>
       <c r="AS2" s="1">
-        <v>-4.7493996888969e-8</v>
+        <v>-4.7493996888969E-8</v>
       </c>
       <c r="AT2" s="1">
-        <v>3.44007663792585e-5</v>
+        <v>3.4400766379258499E-5</v>
       </c>
       <c r="AU2" s="1">
-        <v>2.30886292042179e-18</v>
+        <v>2.30886292042179E-18</v>
       </c>
       <c r="AV2" s="1">
-        <v>-3.69418067267486e-18</v>
+        <v>-3.69418067267486E-18</v>
       </c>
       <c r="AW2" s="1">
-        <v>8.66214024739837e-5</v>
+        <v>8.6621402473983702E-5</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000123803176491305</v>
+        <v>1.2380317649130499E-4</v>
       </c>
       <c r="AY2" s="1">
-        <v>0.000180767713420681</v>
+        <v>1.8076771342068101E-4</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.000277330377894533</v>
+        <v>2.77330377894533E-4</v>
       </c>
       <c r="BA2" s="1">
-        <v>0.000409522501780839</v>
+        <v>4.0952250178083899E-4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="3" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -3875,1134 +3310,1134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="4" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>3.17921025458764e-6</v>
+        <v>3.1792102545876398E-6</v>
       </c>
       <c r="C4" s="1">
-        <v>3.42164610672418e-6</v>
+        <v>3.4216461067241799E-6</v>
       </c>
       <c r="D4" s="1">
-        <v>5.23917236455136e-6</v>
+        <v>5.2391723645513599E-6</v>
       </c>
       <c r="E4" s="1">
-        <v>6.09767185157156e-6</v>
+        <v>6.0976718515715598E-6</v>
       </c>
       <c r="F4" s="1">
-        <v>7.5946696340876e-6</v>
+        <v>7.5946696340876002E-6</v>
       </c>
       <c r="G4" s="1">
-        <v>8.66960133221255e-6</v>
+        <v>8.6696013322125495E-6</v>
       </c>
       <c r="H4" s="1">
-        <v>1.11951686398714e-5</v>
+        <v>1.1195168639871401E-5</v>
       </c>
       <c r="I4" s="1">
-        <v>1.47424103805641e-5</v>
+        <v>1.4742410380564101E-5</v>
       </c>
       <c r="J4" s="1">
-        <v>1.8913203878875e-5</v>
+        <v>1.8913203878875001E-5</v>
       </c>
       <c r="K4" s="1">
-        <v>2.54426685090134e-5</v>
+        <v>2.54426685090134E-5</v>
       </c>
       <c r="L4" s="1">
-        <v>3.372285487115e-5</v>
+        <v>3.3722854871149997E-5</v>
       </c>
       <c r="M4" s="1">
-        <v>4.84132289716192e-5</v>
+        <v>4.8413228971619197E-5</v>
       </c>
       <c r="N4" s="1">
-        <v>6.9216884826817e-5</v>
+        <v>6.9216884826816996E-5</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000101572818588171</v>
+        <v>1.01572818588171E-4</v>
       </c>
       <c r="P4" s="1">
-        <v>0.000384421933503004</v>
+        <v>3.8442193350300398E-4</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.000217353238843785</v>
+        <v>2.1735323884378499E-4</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.000989076024859021</v>
+        <v>-9.8907602485902107E-4</v>
       </c>
       <c r="S4" s="1">
-        <v>-0.000911164571607066</v>
+        <v>-9.1116457160706605E-4</v>
       </c>
       <c r="T4" s="1">
-        <v>-0.00070960368827153</v>
+        <v>-7.0960368827153E-4</v>
       </c>
       <c r="U4" s="1">
-        <v>-0.000482263246106065</v>
+        <v>-4.8226324610606503E-4</v>
       </c>
       <c r="V4" s="1">
-        <v>-0.000314171427213072</v>
+        <v>-3.1417142721307202E-4</v>
       </c>
       <c r="W4" s="1">
-        <v>-0.000203661759186025</v>
+        <v>-2.03661759186025E-4</v>
       </c>
       <c r="X4" s="1">
-        <v>-0.000137376175029244</v>
+        <v>-1.3737617502924401E-4</v>
       </c>
       <c r="Y4" s="1">
-        <v>-9.16425831927406e-5</v>
+        <v>-9.1642583192740601E-5</v>
       </c>
       <c r="Z4" s="1">
-        <v>-6.67750252253705e-5</v>
+        <v>-6.6775025225370495E-5</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.88599431240004e-6</v>
+        <v>5.8859943124000399E-6</v>
       </c>
       <c r="AB4" s="1">
-        <v>-2.7502425051693e-6</v>
+        <v>-2.7502425051693002E-6</v>
       </c>
       <c r="AC4" s="1">
-        <v>-5.33945611168583e-6</v>
+        <v>-5.3394561116858299E-6</v>
       </c>
       <c r="AD4" s="1">
-        <v>3.79274023652127e-6</v>
+        <v>3.79274023652127E-6</v>
       </c>
       <c r="AE4" s="1">
-        <v>5.42895413393893e-7</v>
+        <v>5.4289541339389299E-7</v>
       </c>
       <c r="AF4" s="1">
-        <v>-1.28353811397239e-6</v>
+        <v>-1.28353811397239E-6</v>
       </c>
       <c r="AG4" s="1">
-        <v>-2.50767664812776e-6</v>
+        <v>-2.5076766481277598E-6</v>
       </c>
       <c r="AH4" s="1">
-        <v>-3.48547283353968e-6</v>
+        <v>-3.4854728335396802E-6</v>
       </c>
       <c r="AI4" s="1">
-        <v>-3.6196310933231e-6</v>
+        <v>-3.6196310933230999E-6</v>
       </c>
       <c r="AJ4" s="1">
-        <v>-3.71384513383701e-6</v>
+        <v>-3.7138451338370101E-6</v>
       </c>
       <c r="AK4" s="1">
-        <v>-3.76873123493652e-6</v>
+        <v>-3.7687312349365199E-6</v>
       </c>
       <c r="AL4" s="1">
-        <v>-3.5272183915789e-6</v>
+        <v>-3.5272183915789002E-6</v>
       </c>
       <c r="AM4" s="1">
-        <v>-3.45318901439994e-6</v>
+        <v>-3.4531890143999401E-6</v>
       </c>
       <c r="AN4" s="1">
-        <v>-3.06761526396829e-6</v>
+        <v>-3.06761526396829E-6</v>
       </c>
       <c r="AO4" s="1">
-        <v>-2.8923273694009e-6</v>
+        <v>-2.8923273694009002E-6</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.53916859188903e-8</v>
+        <v>7.5391685918890299E-8</v>
       </c>
       <c r="AQ4" s="1">
-        <v>3.55338611895237e-19</v>
+        <v>3.5533861189523702E-19</v>
       </c>
       <c r="AR4" s="1">
-        <v>-3.23356781623791e-8</v>
+        <v>-3.2335678162379097E-8</v>
       </c>
       <c r="AS4" s="1">
-        <v>1.48973655463946e-7</v>
+        <v>1.4897365546394601E-7</v>
       </c>
       <c r="AT4" s="1">
-        <v>1.5048748477263e-6</v>
+        <v>1.5048748477262999E-6</v>
       </c>
       <c r="AU4" s="1">
-        <v>7.10677223790475e-19</v>
+        <v>7.10677223790475E-19</v>
       </c>
       <c r="AV4" s="1">
-        <v>-1.42135444758095e-18</v>
+        <v>-1.42135444758095E-18</v>
       </c>
       <c r="AW4" s="1">
-        <v>1.32674842721057e-6</v>
+        <v>1.32674842721057E-6</v>
       </c>
       <c r="AX4" s="1">
-        <v>1.33011459658004e-6</v>
+        <v>1.3301145965800401E-6</v>
       </c>
       <c r="AY4" s="1">
-        <v>1.41690338328848e-6</v>
+        <v>1.41690338328848E-6</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.16092248015898e-6</v>
+        <v>1.16092248015898E-6</v>
       </c>
       <c r="BA4" s="1">
-        <v>1.03909530684229e-6</v>
+        <v>1.03909530684229E-6</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="5" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>0.000402391615082214</v>
+        <v>4.0239161508221399E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>0.000228703260545263</v>
+        <v>2.2870326054526301E-4</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000109183464008974</v>
+        <v>1.09183464008974E-4</v>
       </c>
       <c r="E5" s="1">
-        <v>7.12784632590775e-5</v>
+        <v>7.1278463259077506E-5</v>
       </c>
       <c r="F5" s="1">
-        <v>4.95054899720648e-5</v>
+        <v>4.9505489972064801E-5</v>
       </c>
       <c r="G5" s="1">
-        <v>3.2683205390964e-5</v>
+        <v>3.2683205390964001E-5</v>
       </c>
       <c r="H5" s="1">
-        <v>2.50265979678991e-5</v>
+        <v>2.5026597967899101E-5</v>
       </c>
       <c r="I5" s="1">
-        <v>1.93804710079884e-5</v>
+        <v>1.9380471007988401E-5</v>
       </c>
       <c r="J5" s="1">
-        <v>1.47559001603945e-5</v>
+        <v>1.47559001603945E-5</v>
       </c>
       <c r="K5" s="1">
-        <v>1.16797320131064e-5</v>
+        <v>1.16797320131064E-5</v>
       </c>
       <c r="L5" s="1">
-        <v>8.97826535949963e-6</v>
+        <v>8.9782653594996303E-6</v>
       </c>
       <c r="M5" s="1">
-        <v>7.51498283807311e-6</v>
+        <v>7.5149828380731098E-6</v>
       </c>
       <c r="N5" s="1">
-        <v>6.12971575277899e-6</v>
+        <v>6.1297157527789903E-6</v>
       </c>
       <c r="O5" s="1">
-        <v>4.75320185621804e-6</v>
+        <v>4.7532018562180403E-6</v>
       </c>
       <c r="P5" s="1">
-        <v>2.56230656409386e-6</v>
+        <v>2.5623065640938598E-6</v>
       </c>
       <c r="Q5" s="1">
-        <v>3.05700053540921e-6</v>
+        <v>3.0570005354092101E-6</v>
       </c>
       <c r="R5" s="1">
-        <v>1.44205454607409e-5</v>
+        <v>1.44205454607409E-5</v>
       </c>
       <c r="S5" s="1">
-        <v>1.57702269411708e-6</v>
+        <v>1.5770226941170799E-6</v>
       </c>
       <c r="T5" s="1">
-        <v>3.39345974715565e-6</v>
+        <v>3.3934597471556499E-6</v>
       </c>
       <c r="U5" s="1">
-        <v>2.0225406277944e-6</v>
+        <v>2.0225406277943998E-6</v>
       </c>
       <c r="V5" s="1">
-        <v>1.45596793291782e-6</v>
+        <v>1.45596793291782E-6</v>
       </c>
       <c r="W5" s="1">
-        <v>1.45332448575358e-6</v>
+        <v>1.4533244857535799E-6</v>
       </c>
       <c r="X5" s="1">
-        <v>1.37459880692105e-6</v>
+        <v>1.3745988069210499E-6</v>
       </c>
       <c r="Y5" s="1">
-        <v>1.49306043833039e-6</v>
+        <v>1.4930604383303901E-6</v>
       </c>
       <c r="Z5" s="1">
-        <v>1.80026166603936e-6</v>
+        <v>1.8002616660393599E-6</v>
       </c>
       <c r="AA5" s="1">
-        <v>-9.27284455188097e-7</v>
+        <v>-9.2728445518809705E-7</v>
       </c>
       <c r="AB5" s="1">
-        <v>-7.35691835232347e-7</v>
+        <v>-7.3569183523234699E-7</v>
       </c>
       <c r="AC5" s="1">
-        <v>-8.19556956795007e-7</v>
+        <v>-8.19556956795007E-7</v>
       </c>
       <c r="AD5" s="1">
-        <v>-2.83355866826518e-6</v>
+        <v>-2.83355866826518E-6</v>
       </c>
       <c r="AE5" s="1">
-        <v>-2.92690326753656e-6</v>
+        <v>-2.9269032675365602E-6</v>
       </c>
       <c r="AF5" s="1">
-        <v>-3.23985811441081e-6</v>
+        <v>-3.2398581144108101E-6</v>
       </c>
       <c r="AG5" s="1">
-        <v>-3.47079684740018e-6</v>
+        <v>-3.4707968474001798E-6</v>
       </c>
       <c r="AH5" s="1">
-        <v>-4.01798936019904e-6</v>
+        <v>-4.0179893601990399E-6</v>
       </c>
       <c r="AI5" s="1">
-        <v>-3.79624796749807e-6</v>
+        <v>-3.79624796749807E-6</v>
       </c>
       <c r="AJ5" s="1">
-        <v>-3.70298903180547e-6</v>
+        <v>-3.70298903180547E-6</v>
       </c>
       <c r="AK5" s="1">
-        <v>-3.53831719077407e-6</v>
+        <v>-3.5383171907740699E-6</v>
       </c>
       <c r="AL5" s="1">
-        <v>-2.94130554387714e-6</v>
+        <v>-2.9413055438771399E-6</v>
       </c>
       <c r="AM5" s="1">
-        <v>-1.58478060574436e-6</v>
+        <v>-1.58478060574436E-6</v>
       </c>
       <c r="AN5" s="1">
-        <v>6.04598699210639e-7</v>
+        <v>6.0459869921063903E-7</v>
       </c>
       <c r="AO5" s="1">
-        <v>3.7714464107996e-6</v>
+        <v>3.7714464107996E-6</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.19683981660464e-7</v>
+        <v>1.19683981660464E-7</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1.06525780292101e-18</v>
+        <v>1.06525780292101E-18</v>
       </c>
       <c r="AR5" s="1">
-        <v>-5.41516984919921e-8</v>
+        <v>-5.4151698491992103E-8</v>
       </c>
       <c r="AS5" s="1">
-        <v>2.37694480491495e-7</v>
+        <v>2.37694480491495E-7</v>
       </c>
       <c r="AT5" s="1">
-        <v>-9.6068042416991e-5</v>
+        <v>-9.6068042416990997E-5</v>
       </c>
       <c r="AU5" s="1">
-        <v>1.42034373722801e-18</v>
+        <v>1.42034373722801E-18</v>
       </c>
       <c r="AV5" s="1">
-        <v>-2.48560154014902e-18</v>
+        <v>-2.48560154014902E-18</v>
       </c>
       <c r="AW5" s="1">
-        <v>-0.000319401572582124</v>
+        <v>-3.1940157258212399E-4</v>
       </c>
       <c r="AX5" s="1">
-        <v>-0.000496659530163969</v>
+        <v>-4.9665953016396903E-4</v>
       </c>
       <c r="AY5" s="1">
-        <v>-0.000736435027982614</v>
+        <v>-7.3643502798261397E-4</v>
       </c>
       <c r="AZ5" s="1">
-        <v>-0.000956891201880799</v>
+        <v>-9.5689120188079905E-4</v>
       </c>
       <c r="BA5" s="1">
-        <v>-0.000925214733208929</v>
+        <v>-9.2521473320892895E-4</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="6" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1">
-        <v>1.00578639586598e-5</v>
+        <v>1.00578639586598E-5</v>
       </c>
       <c r="C6" s="1">
-        <v>1.18260094155758e-5</v>
+        <v>1.18260094155758E-5</v>
       </c>
       <c r="D6" s="1">
-        <v>1.71801050168049e-5</v>
+        <v>1.7180105016804899E-5</v>
       </c>
       <c r="E6" s="1">
-        <v>1.98009617990557e-5</v>
+        <v>1.9800961799055699E-5</v>
       </c>
       <c r="F6" s="1">
-        <v>2.38961033147512e-5</v>
+        <v>2.38961033147512E-5</v>
       </c>
       <c r="G6" s="1">
-        <v>2.64034858452808e-5</v>
+        <v>2.64034858452808E-5</v>
       </c>
       <c r="H6" s="1">
-        <v>3.37026001542343e-5</v>
+        <v>3.3702600154234303E-5</v>
       </c>
       <c r="I6" s="1">
-        <v>4.25629924598839e-5</v>
+        <v>4.2562992459883898E-5</v>
       </c>
       <c r="J6" s="1">
-        <v>5.18075503340759e-5</v>
+        <v>5.1807550334075898E-5</v>
       </c>
       <c r="K6" s="1">
-        <v>6.62949877432165e-5</v>
+        <v>6.6294987743216495E-5</v>
       </c>
       <c r="L6" s="1">
-        <v>8.21883164729289e-5</v>
+        <v>8.2188316472928897E-5</v>
       </c>
       <c r="M6" s="1">
-        <v>0.000107999932602601</v>
+        <v>1.07999932602601E-4</v>
       </c>
       <c r="N6" s="1">
-        <v>0.000136724018704889</v>
+        <v>1.36724018704889E-4</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000173700940268013</v>
+        <v>1.7370094026801299E-4</v>
       </c>
       <c r="P6" s="1">
-        <v>0.000351352936606917</v>
+        <v>3.51352936606917E-4</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.000282171235088753</v>
+        <v>2.82171235088753E-4</v>
       </c>
       <c r="R6" s="1">
-        <v>-0.000127348693112406</v>
+        <v>-1.2734869311240601E-4</v>
       </c>
       <c r="S6" s="1">
-        <v>-0.000158031557361092</v>
+        <v>-1.58031557361092E-4</v>
       </c>
       <c r="T6" s="1">
-        <v>-0.000208976704590115</v>
+        <v>-2.08976704590115E-4</v>
       </c>
       <c r="U6" s="1">
-        <v>-0.000293134499349475</v>
+        <v>-2.9313449934947498E-4</v>
       </c>
       <c r="V6" s="1">
-        <v>-0.00041544793432881</v>
+        <v>-4.1544793432881001E-4</v>
       </c>
       <c r="W6" s="1">
-        <v>-0.000583766853434732</v>
+        <v>-5.8376685343473195E-4</v>
       </c>
       <c r="X6" s="1">
-        <v>-0.000810755552169857</v>
+        <v>-8.1075555216985696E-4</v>
       </c>
       <c r="Y6" s="1">
-        <v>-0.000988572347315047</v>
+        <v>-9.8857234731504701E-4</v>
       </c>
       <c r="Z6" s="1">
-        <v>-0.00102173719604975</v>
+        <v>-1.02173719604975E-3</v>
       </c>
       <c r="AA6" s="1">
-        <v>-0.000161017938518412</v>
+        <v>-1.61017938518412E-4</v>
       </c>
       <c r="AB6" s="1">
-        <v>-9.45191300143636e-5</v>
+        <v>-9.4519130014363595E-5</v>
       </c>
       <c r="AC6" s="1">
-        <v>-6.34297075474459e-5</v>
+        <v>-6.3429707547445904E-5</v>
       </c>
       <c r="AD6" s="1">
-        <v>-8.33983635339864e-7</v>
+        <v>-8.3398363533986404E-7</v>
       </c>
       <c r="AE6" s="1">
-        <v>-1.06404579356823e-5</v>
+        <v>-1.0640457935682301E-5</v>
       </c>
       <c r="AF6" s="1">
-        <v>-1.4595666419109e-5</v>
+        <v>-1.4595666419109001E-5</v>
       </c>
       <c r="AG6" s="1">
-        <v>-1.61728125180453e-5</v>
+        <v>-1.6172812518045301E-5</v>
       </c>
       <c r="AH6" s="1">
-        <v>-1.76989145660298e-5</v>
+        <v>-1.76989145660298E-5</v>
       </c>
       <c r="AI6" s="1">
-        <v>-1.67542981046427e-5</v>
+        <v>-1.6754298104642699E-5</v>
       </c>
       <c r="AJ6" s="1">
-        <v>-1.60414111033889e-5</v>
+        <v>-1.6041411103388901E-5</v>
       </c>
       <c r="AK6" s="1">
-        <v>-1.51159391670773e-5</v>
+        <v>-1.51159391670773E-5</v>
       </c>
       <c r="AL6" s="1">
-        <v>-1.36692781688203e-5</v>
+        <v>-1.36692781688203E-5</v>
       </c>
       <c r="AM6" s="1">
-        <v>-1.29605766521009e-5</v>
+        <v>-1.29605766521009E-5</v>
       </c>
       <c r="AN6" s="1">
-        <v>-1.15612876488199e-5</v>
+        <v>-1.1561287648819901E-5</v>
       </c>
       <c r="AO6" s="1">
-        <v>-1.08163548765379e-5</v>
+        <v>-1.0816354876537899E-5</v>
       </c>
       <c r="AP6" s="1">
-        <v>2.92049758466239e-8</v>
+        <v>2.9204975846623901E-8</v>
       </c>
       <c r="AQ6" s="1">
-        <v>2.96542858122272e-19</v>
+        <v>2.96542858122272E-19</v>
       </c>
       <c r="AR6" s="1">
-        <v>-5.38222766369735e-8</v>
+        <v>-5.38222766369735E-8</v>
       </c>
       <c r="AS6" s="1">
-        <v>7.50690926045004e-9</v>
+        <v>7.5069092604500397E-9</v>
       </c>
       <c r="AT6" s="1">
-        <v>5.20221151486129e-6</v>
+        <v>5.2022115148612902E-6</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.93085716244543e-19</v>
+        <v>5.9308571624454304E-19</v>
       </c>
       <c r="AV6" s="1">
-        <v>-1.18617143248909e-18</v>
+        <v>-1.1861714324890899E-18</v>
       </c>
       <c r="AW6" s="1">
-        <v>4.6611864417755e-6</v>
+        <v>4.6611864417754999E-6</v>
       </c>
       <c r="AX6" s="1">
-        <v>4.30681296195249e-6</v>
+        <v>4.3068129619524901E-6</v>
       </c>
       <c r="AY6" s="1">
-        <v>3.83900963831539e-6</v>
+        <v>3.8390096383153898E-6</v>
       </c>
       <c r="AZ6" s="1">
-        <v>3.4181106770773e-6</v>
+        <v>3.4181106770772998E-6</v>
       </c>
       <c r="BA6" s="1">
-        <v>3.00658288376231e-6</v>
+        <v>3.0065828837623102E-6</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="7" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000341499800934145</v>
+        <v>3.4149980093414501E-4</v>
       </c>
       <c r="C7" s="1">
-        <v>0.00027812292262119</v>
+        <v>2.7812292262119001E-4</v>
       </c>
       <c r="D7" s="1">
-        <v>0.000176550710679397</v>
+        <v>1.7655071067939701E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000133620738921698</v>
+        <v>1.3362073892169801E-4</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000104091623939469</v>
+        <v>1.04091623939469E-4</v>
       </c>
       <c r="G7" s="1">
-        <v>7.5038189392275e-5</v>
+        <v>7.5038189392274997E-5</v>
       </c>
       <c r="H7" s="1">
-        <v>6.22239190840163e-5</v>
+        <v>6.2223919084016294E-5</v>
       </c>
       <c r="I7" s="1">
-        <v>5.08317459059801e-5</v>
+        <v>5.0831745905980097E-5</v>
       </c>
       <c r="J7" s="1">
-        <v>3.99800705141616e-5</v>
+        <v>3.9980070514161601E-5</v>
       </c>
       <c r="K7" s="1">
-        <v>3.29859253573598e-5</v>
+        <v>3.2985925357359799E-5</v>
       </c>
       <c r="L7" s="1">
-        <v>2.65760786192992e-5</v>
+        <v>2.6576078619299199E-5</v>
       </c>
       <c r="M7" s="1">
-        <v>2.28185642417907e-5</v>
+        <v>2.2818564241790702E-5</v>
       </c>
       <c r="N7" s="1">
-        <v>1.85424296834506e-5</v>
+        <v>1.85424296834506E-5</v>
       </c>
       <c r="O7" s="1">
-        <v>1.51720613194082e-5</v>
+        <v>1.51720613194082E-5</v>
       </c>
       <c r="P7" s="1">
-        <v>9.39759525878367e-6</v>
+        <v>9.3975952587836706E-6</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.0895279160027e-5</v>
+        <v>1.0895279160027E-5</v>
       </c>
       <c r="R7" s="1">
-        <v>4.404763489655e-6</v>
+        <v>4.4047634896550002E-6</v>
       </c>
       <c r="S7" s="1">
-        <v>3.44927401924668e-6</v>
+        <v>3.4492740192466802E-6</v>
       </c>
       <c r="T7" s="1">
-        <v>4.13479693926256e-6</v>
+        <v>4.1347969392625597E-6</v>
       </c>
       <c r="U7" s="1">
-        <v>4.66810912430987e-6</v>
+        <v>4.66810912430987E-6</v>
       </c>
       <c r="V7" s="1">
-        <v>4.73735490548894e-6</v>
+        <v>4.7373549054889404E-6</v>
       </c>
       <c r="W7" s="1">
-        <v>4.9129140130644e-6</v>
+        <v>4.9129140130643998E-6</v>
       </c>
       <c r="X7" s="1">
-        <v>5.18388725773332e-6</v>
+        <v>5.1838872577333199E-6</v>
       </c>
       <c r="Y7" s="1">
-        <v>5.44844915812933e-6</v>
+        <v>5.4484491581293301E-6</v>
       </c>
       <c r="Z7" s="1">
-        <v>5.80129449816401e-6</v>
+        <v>5.8012944981640101E-6</v>
       </c>
       <c r="AA7" s="1">
-        <v>-3.66236193756185e-6</v>
+        <v>-3.6623619375618498E-6</v>
       </c>
       <c r="AB7" s="1">
-        <v>-3.16398976290499e-6</v>
+        <v>-3.1639897629049899E-6</v>
       </c>
       <c r="AC7" s="1">
-        <v>-3.02220185817534e-6</v>
+        <v>-3.0222018581753399E-6</v>
       </c>
       <c r="AD7" s="1">
-        <v>-1.01583344405431e-5</v>
+        <v>-1.01583344405431E-5</v>
       </c>
       <c r="AE7" s="1">
-        <v>-1.0700923805353e-5</v>
+        <v>-1.0700923805352999E-5</v>
       </c>
       <c r="AF7" s="1">
-        <v>-1.19501008251976e-5</v>
+        <v>-1.1950100825197599E-5</v>
       </c>
       <c r="AG7" s="1">
-        <v>-1.29521868072799e-5</v>
+        <v>-1.29521868072799E-5</v>
       </c>
       <c r="AH7" s="1">
-        <v>-1.49405760043067e-5</v>
+        <v>-1.49405760043067E-5</v>
       </c>
       <c r="AI7" s="1">
-        <v>-1.54284548587226e-5</v>
+        <v>-1.5428454858722599E-5</v>
       </c>
       <c r="AJ7" s="1">
-        <v>-1.63070562756395e-5</v>
+        <v>-1.6307056275639501E-5</v>
       </c>
       <c r="AK7" s="1">
-        <v>-1.67306679381463e-5</v>
+        <v>-1.6730667938146301E-5</v>
       </c>
       <c r="AL7" s="1">
-        <v>-1.66268139945734e-5</v>
+        <v>-1.6626813994573398E-5</v>
       </c>
       <c r="AM7" s="1">
-        <v>-1.44715037419851e-5</v>
+        <v>-1.44715037419851E-5</v>
       </c>
       <c r="AN7" s="1">
-        <v>-9.67547170002297e-6</v>
+        <v>-9.6754717000229692E-6</v>
       </c>
       <c r="AO7" s="1">
-        <v>-1.06689070815931e-6</v>
+        <v>-1.06689070815931E-6</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.12860846752422e-8</v>
+        <v>4.1286084675242202E-8</v>
       </c>
       <c r="AQ7" s="1">
-        <v>8.86726111272138e-19</v>
+        <v>8.8672611127213797E-19</v>
       </c>
       <c r="AR7" s="1">
-        <v>-9.49805983068312e-8</v>
+        <v>-9.4980598306831206E-8</v>
       </c>
       <c r="AS7" s="1">
-        <v>8.86130689299678e-9</v>
+        <v>8.8613068929967805E-9</v>
       </c>
       <c r="AT7" s="1">
-        <v>-0.000958822882214713</v>
+        <v>-9.5882288221471297E-4</v>
       </c>
       <c r="AU7" s="1">
-        <v>-0.000276417683910909</v>
+        <v>-2.7641768391090902E-4</v>
       </c>
       <c r="AV7" s="1">
-        <v>-2.06902759296832e-18</v>
+        <v>-2.06902759296832E-18</v>
       </c>
       <c r="AW7" s="1">
-        <v>-0.000388712777636051</v>
+        <v>-3.8871277763605103E-4</v>
       </c>
       <c r="AX7" s="1">
-        <v>-0.000279463791509412</v>
+        <v>-2.7946379150941203E-4</v>
       </c>
       <c r="AY7" s="1">
-        <v>-0.00020256585183798</v>
+        <v>-2.0256585183797999E-4</v>
       </c>
       <c r="AZ7" s="1">
-        <v>-0.0001559195273478</v>
+        <v>-1.559195273478E-4</v>
       </c>
       <c r="BA7" s="1">
-        <v>-0.000111938294536944</v>
+        <v>-1.11938294536944E-4</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="8" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="1">
-        <v>2.87440666108102e-5</v>
+        <v>2.8744066610810198E-5</v>
       </c>
       <c r="C8" s="1">
-        <v>3.31356915889294e-5</v>
+        <v>3.3135691588929402E-5</v>
       </c>
       <c r="D8" s="1">
-        <v>4.58930783489363e-5</v>
+        <v>4.5893078348936303E-5</v>
       </c>
       <c r="E8" s="1">
-        <v>5.16426856283337e-5</v>
+        <v>5.1642685628333701E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>6.07161155574207e-5</v>
+        <v>6.0716115557420701E-5</v>
       </c>
       <c r="G8" s="1">
-        <v>6.59139888176144e-5</v>
+        <v>6.5913988817614395E-5</v>
       </c>
       <c r="H8" s="1">
-        <v>8.08037221134127e-5</v>
+        <v>8.0803722113412704E-5</v>
       </c>
       <c r="I8" s="1">
-        <v>9.70196751660471e-5</v>
+        <v>9.7019675166047095E-5</v>
       </c>
       <c r="J8" s="1">
-        <v>0.00011051449376064</v>
+        <v>1.1051449376064001E-4</v>
       </c>
       <c r="K8" s="1">
-        <v>0.000130479130544304</v>
+        <v>1.3047913054430401E-4</v>
       </c>
       <c r="L8" s="1">
-        <v>0.000147764230963758</v>
+        <v>1.4776423096375801E-4</v>
       </c>
       <c r="M8" s="1">
-        <v>0.00017201410193785</v>
+        <v>1.7201410193784999E-4</v>
       </c>
       <c r="N8" s="1">
-        <v>0.000188459845629571</v>
+        <v>1.8845984562957101E-4</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000203545644135991</v>
+        <v>2.0354564413599101E-4</v>
       </c>
       <c r="P8" s="1">
-        <v>0.000228441042965377</v>
+        <v>2.2844104296537699E-4</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.000228323056044642</v>
+        <v>2.2832305604464199E-4</v>
       </c>
       <c r="R8" s="1">
-        <v>2.64603501775406e-5</v>
+        <v>2.6460350177540601E-5</v>
       </c>
       <c r="S8" s="1">
-        <v>3.08684292442313e-5</v>
+        <v>3.0868429244231302E-5</v>
       </c>
       <c r="T8" s="1">
-        <v>3.87287766579281e-5</v>
+        <v>3.87287766579281E-5</v>
       </c>
       <c r="U8" s="1">
-        <v>4.47211420724704e-5</v>
+        <v>4.47211420724704E-5</v>
       </c>
       <c r="V8" s="1">
-        <v>5.2014613426987e-5</v>
+        <v>5.2014613426987002E-5</v>
       </c>
       <c r="W8" s="1">
-        <v>6.12317479036009e-5</v>
+        <v>6.1231747903600905E-5</v>
       </c>
       <c r="X8" s="1">
-        <v>7.3273029115491e-5</v>
+        <v>7.3273029115490998E-5</v>
       </c>
       <c r="Y8" s="1">
-        <v>8.0511880590048e-5</v>
+        <v>8.0511880590047999E-5</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.000101363583061862</v>
+        <v>1.01363583061862E-4</v>
       </c>
       <c r="AA8" s="1">
-        <v>-0.000292887581169045</v>
+        <v>-2.9288758116904499E-4</v>
       </c>
       <c r="AB8" s="1">
-        <v>-0.000450749209943711</v>
+        <v>-4.5074920994371098E-4</v>
       </c>
       <c r="AC8" s="1">
-        <v>-0.000669684262942854</v>
+        <v>-6.6968426294285405E-4</v>
       </c>
       <c r="AD8" s="1">
-        <v>-0.000199767838952739</v>
+        <v>-1.9976783895273901E-4</v>
       </c>
       <c r="AE8" s="1">
-        <v>-0.000140213790292356</v>
+        <v>-1.4021379029235601E-4</v>
       </c>
       <c r="AF8" s="1">
-        <v>-0.000108380855939568</v>
+        <v>-1.08380855939568E-4</v>
       </c>
       <c r="AG8" s="1">
-        <v>-8.73090267936046e-5</v>
+        <v>-8.7309026793604594E-5</v>
       </c>
       <c r="AH8" s="1">
-        <v>-7.91209296632773e-5</v>
+        <v>-7.9120929663277297E-5</v>
       </c>
       <c r="AI8" s="1">
-        <v>-6.62895797446609e-5</v>
+        <v>-6.6289579744660903E-5</v>
       </c>
       <c r="AJ8" s="1">
-        <v>-5.83806062375302e-5</v>
+        <v>-5.8380606237530201E-5</v>
       </c>
       <c r="AK8" s="1">
-        <v>-5.17468590746531e-5</v>
+        <v>-5.1746859074653098E-5</v>
       </c>
       <c r="AL8" s="1">
-        <v>-4.47738481726343e-5</v>
+        <v>-4.4773848172634299E-5</v>
       </c>
       <c r="AM8" s="1">
-        <v>-4.13999114761811e-5</v>
+        <v>-4.1399911476181099E-5</v>
       </c>
       <c r="AN8" s="1">
-        <v>-3.59910307908351e-5</v>
+        <v>-3.59910307908351E-5</v>
       </c>
       <c r="AO8" s="1">
-        <v>-3.33046893888868e-5</v>
+        <v>-3.3304689388886802E-5</v>
       </c>
       <c r="AP8" s="1">
-        <v>-3.451102152813e-8</v>
+        <v>-3.451102152813E-8</v>
       </c>
       <c r="AQ8" s="1">
-        <v>3.55443771646708e-19</v>
+        <v>3.5544377164670798E-19</v>
       </c>
       <c r="AR8" s="1">
-        <v>-8.78849817095273e-8</v>
+        <v>-8.7884981709527306E-8</v>
       </c>
       <c r="AS8" s="1">
-        <v>5.94775835930662e-8</v>
+        <v>5.9477583593066199E-8</v>
       </c>
       <c r="AT8" s="1">
-        <v>1.45717086231115e-5</v>
+        <v>1.45717086231115E-5</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.10887543293416e-19</v>
+        <v>7.1088754329341597E-19</v>
       </c>
       <c r="AV8" s="1">
-        <v>-1.08054906580599e-18</v>
+        <v>-1.0805490658059901E-18</v>
       </c>
       <c r="AW8" s="1">
-        <v>1.29382415899463e-5</v>
+        <v>1.2938241589946299E-5</v>
       </c>
       <c r="AX8" s="1">
-        <v>1.17570591338871e-5</v>
+        <v>1.1757059133887101E-5</v>
       </c>
       <c r="AY8" s="1">
-        <v>1.07776206817919e-5</v>
+        <v>1.0777620681791899E-5</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.70063257863866e-6</v>
+        <v>9.7006325786386596E-6</v>
       </c>
       <c r="BA8" s="1">
-        <v>8.08820589190141e-6</v>
+        <v>8.0882058919014093E-6</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="9" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="1">
-        <v>0.000236259021610287</v>
+        <v>2.3625902161028699E-4</v>
       </c>
       <c r="C9" s="1">
-        <v>0.000238516747271496</v>
+        <v>2.3851674727149599E-4</v>
       </c>
       <c r="D9" s="1">
-        <v>0.000219171630422596</v>
+        <v>2.1917163042259601E-4</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000195336875866606</v>
+        <v>1.95336875866606E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>0.000175657913825114</v>
+        <v>1.7565791382511401E-4</v>
       </c>
       <c r="G9" s="1">
-        <v>0.000142659214757238</v>
+        <v>1.4265921475723801E-4</v>
       </c>
       <c r="H9" s="1">
-        <v>0.0001304461520329</v>
+        <v>1.3044615203290001E-4</v>
       </c>
       <c r="I9" s="1">
-        <v>0.000115227809522747</v>
+        <v>1.15227809522747E-4</v>
       </c>
       <c r="J9" s="1">
-        <v>9.66074660699246e-5</v>
+        <v>9.6607466069924603E-5</v>
       </c>
       <c r="K9" s="1">
-        <v>8.37877943752892e-5</v>
+        <v>8.3787794375289197E-5</v>
       </c>
       <c r="L9" s="1">
-        <v>7.08005687914585e-5</v>
+        <v>7.0800568791458499E-5</v>
       </c>
       <c r="M9" s="1">
-        <v>6.21041571707122e-5</v>
+        <v>6.2104157170712196E-5</v>
       </c>
       <c r="N9" s="1">
-        <v>5.16928422791702e-5</v>
+        <v>5.1692842279170203E-5</v>
       </c>
       <c r="O9" s="1">
-        <v>4.39764724002298e-5</v>
+        <v>4.3976472400229801E-5</v>
       </c>
       <c r="P9" s="1">
-        <v>2.90063773894404e-5</v>
+        <v>2.90063773894404E-5</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.30660311915712e-5</v>
+        <v>3.3066031191571202E-5</v>
       </c>
       <c r="R9" s="1">
-        <v>8.49165652641757e-6</v>
+        <v>8.4916565264175699E-6</v>
       </c>
       <c r="S9" s="1">
-        <v>9.45434699351849e-6</v>
+        <v>9.4543469935184908E-6</v>
       </c>
       <c r="T9" s="1">
-        <v>1.08890142183344e-5</v>
+        <v>1.0889014218334399E-5</v>
       </c>
       <c r="U9" s="1">
-        <v>1.1490349438648e-5</v>
+        <v>1.1490349438648E-5</v>
       </c>
       <c r="V9" s="1">
-        <v>1.27283725474208e-5</v>
+        <v>1.27283725474208E-5</v>
       </c>
       <c r="W9" s="1">
-        <v>1.33311916498654e-5</v>
+        <v>1.3331191649865399E-5</v>
       </c>
       <c r="X9" s="1">
-        <v>1.38474175614312e-5</v>
+        <v>1.38474175614312E-5</v>
       </c>
       <c r="Y9" s="1">
-        <v>1.40007002290436e-5</v>
+        <v>1.4000700229043601E-5</v>
       </c>
       <c r="Z9" s="1">
-        <v>1.50159723861459e-5</v>
+        <v>1.50159723861459E-5</v>
       </c>
       <c r="AA9" s="1">
-        <v>-1.18702260565108e-5</v>
+        <v>-1.1870226056510801E-5</v>
       </c>
       <c r="AB9" s="1">
-        <v>-1.09994725786881e-5</v>
+        <v>-1.09994725786881E-5</v>
       </c>
       <c r="AC9" s="1">
-        <v>-1.00302389836733e-5</v>
+        <v>-1.00302389836733E-5</v>
       </c>
       <c r="AD9" s="1">
-        <v>-3.31258070093388e-5</v>
+        <v>-3.3125807009338802E-5</v>
       </c>
       <c r="AE9" s="1">
-        <v>-3.58105224193435e-5</v>
+        <v>-3.58105224193435E-5</v>
       </c>
       <c r="AF9" s="1">
-        <v>-4.10444458168545e-5</v>
+        <v>-4.1044445816854498E-5</v>
       </c>
       <c r="AG9" s="1">
-        <v>-4.51711014156378e-5</v>
+        <v>-4.5171101415637801E-5</v>
       </c>
       <c r="AH9" s="1">
-        <v>-5.45518736895546e-5</v>
+        <v>-5.4551873689554602E-5</v>
       </c>
       <c r="AI9" s="1">
-        <v>-5.9548368741736e-5</v>
+        <v>-5.9548368741735998E-5</v>
       </c>
       <c r="AJ9" s="1">
-        <v>-6.82082065027739e-5</v>
+        <v>-6.82082065027739E-5</v>
       </c>
       <c r="AK9" s="1">
-        <v>-7.88369717124167e-5</v>
+        <v>-7.8836971712416696E-5</v>
       </c>
       <c r="AL9" s="1">
-        <v>-9.31445674373799e-5</v>
+        <v>-9.3144567437379895E-5</v>
       </c>
       <c r="AM9" s="1">
-        <v>-0.000113034342620325</v>
+        <v>-1.13034342620325E-4</v>
       </c>
       <c r="AN9" s="1">
-        <v>-0.000139280028957095</v>
+        <v>-1.39280028957095E-4</v>
       </c>
       <c r="AO9" s="1">
-        <v>-0.000201822700460756</v>
+        <v>-2.0182270046075599E-4</v>
       </c>
       <c r="AP9" s="1">
-        <v>-4.88324969003047e-8</v>
+        <v>-4.8832496900304698E-8</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1.06624112488066e-18</v>
+        <v>1.06624112488066E-18</v>
       </c>
       <c r="AR9" s="1">
-        <v>-1.729698175246e-7</v>
+        <v>-1.729698175246E-7</v>
       </c>
       <c r="AS9" s="1">
-        <v>1.14898316662415e-7</v>
+        <v>1.1489831666241501E-7</v>
       </c>
       <c r="AT9" s="1">
-        <v>8.58082882568658e-5</v>
+        <v>8.5808288256865794E-5</v>
       </c>
       <c r="AU9" s="1">
-        <v>1.77706854146776e-18</v>
+        <v>1.7770685414677599E-18</v>
       </c>
       <c r="AV9" s="1">
-        <v>-2.84330966634842e-18</v>
+        <v>-2.84330966634842E-18</v>
       </c>
       <c r="AW9" s="1">
-        <v>5.30346194167206e-5</v>
+        <v>5.30346194167206E-5</v>
       </c>
       <c r="AX9" s="1">
-        <v>4.41173240267996e-5</v>
+        <v>4.4117324026799598E-5</v>
       </c>
       <c r="AY9" s="1">
-        <v>3.80790030677388e-5</v>
+        <v>3.8079003067738798E-5</v>
       </c>
       <c r="AZ9" s="1">
-        <v>3.13143536590816e-5</v>
+        <v>3.1314353659081599E-5</v>
       </c>
       <c r="BA9" s="1">
-        <v>2.48664374081981e-5</v>
+        <v>2.48664374081981E-5</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="10" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="1">
-        <v>0.00020096965472481</v>
+        <v>2.0096965472480999E-4</v>
       </c>
       <c r="C10" s="1">
-        <v>0.000225105575720675</v>
+        <v>2.2510557572067501E-4</v>
       </c>
       <c r="D10" s="1">
-        <v>0.000277423448141887</v>
+        <v>2.7742344814188699E-4</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000290784907921064</v>
+        <v>2.90784907921064E-4</v>
       </c>
       <c r="F10" s="1">
-        <v>0.000312418196846857</v>
+        <v>3.1241819684685697E-4</v>
       </c>
       <c r="G10" s="1">
-        <v>0.00030273383402336</v>
+        <v>3.0273383402335999E-4</v>
       </c>
       <c r="H10" s="1">
-        <v>0.000328757140222829</v>
+        <v>3.28757140222829E-4</v>
       </c>
       <c r="I10" s="1">
-        <v>0.000342283396975794</v>
+        <v>3.4228339697579401E-4</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000335739842869876</v>
+        <v>3.3573984286987599E-4</v>
       </c>
       <c r="K10" s="1">
-        <v>0.000334039180331291</v>
+        <v>3.3403918033129097E-4</v>
       </c>
       <c r="L10" s="1">
-        <v>0.000319656558621403</v>
+        <v>3.1965655862140302E-4</v>
       </c>
       <c r="M10" s="1">
-        <v>0.000312240956003566</v>
+        <v>3.12240956003566E-4</v>
       </c>
       <c r="N10" s="1">
-        <v>0.000286909089051439</v>
+        <v>2.8690908905143898E-4</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000263710101702496</v>
+        <v>2.6371010170249599E-4</v>
       </c>
       <c r="P10" s="1">
-        <v>0.000199754111276938</v>
+        <v>1.9975411127693801E-4</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.000220776089820793</v>
+        <v>2.20776089820793E-4</v>
       </c>
       <c r="R10" s="1">
-        <v>5.26631304548492e-5</v>
+        <v>5.2663130454849201E-5</v>
       </c>
       <c r="S10" s="1">
-        <v>5.80585448594499e-5</v>
+        <v>5.8058544859449902E-5</v>
       </c>
       <c r="T10" s="1">
-        <v>6.732033743306e-5</v>
+        <v>6.7320337433059995E-5</v>
       </c>
       <c r="U10" s="1">
-        <v>7.52706533338095e-5</v>
+        <v>7.52706533338095E-5</v>
       </c>
       <c r="V10" s="1">
-        <v>8.29401444744385e-5</v>
+        <v>8.2940144474438505E-5</v>
       </c>
       <c r="W10" s="1">
-        <v>9.05125346087241e-5</v>
+        <v>9.0512534608724101E-5</v>
       </c>
       <c r="X10" s="1">
-        <v>9.89347400835153e-5</v>
+        <v>9.8934740083515303E-5</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000100553726406889</v>
+        <v>1.00553726406889E-4</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.000111095396803792</v>
+        <v>1.1109539680379201E-4</v>
       </c>
       <c r="AA10" s="1">
-        <v>-0.000100319632688656</v>
+        <v>-1.00319632688656E-4</v>
       </c>
       <c r="AB10" s="1">
-        <v>-9.86510749367002e-5</v>
+        <v>-9.8651074936700198E-5</v>
       </c>
       <c r="AC10" s="1">
-        <v>-0.000100596530076494</v>
+        <v>-1.0059653007649399E-4</v>
       </c>
       <c r="AD10" s="1">
-        <v>-0.000355080027226884</v>
+        <v>-3.5508002722688402E-4</v>
       </c>
       <c r="AE10" s="1">
-        <v>-0.000435400644961026</v>
+        <v>-4.35400644961026E-4</v>
       </c>
       <c r="AF10" s="1">
-        <v>-0.000536964052447815</v>
+        <v>-5.3696405244781499E-4</v>
       </c>
       <c r="AG10" s="1">
-        <v>-0.000585608384763503</v>
+        <v>-5.8560838476350301E-4</v>
       </c>
       <c r="AH10" s="1">
-        <v>-0.000627781911310243</v>
+        <v>-6.2778191131024298E-4</v>
       </c>
       <c r="AI10" s="1">
-        <v>-0.000580389738538503</v>
+        <v>-5.8038973853850298E-4</v>
       </c>
       <c r="AJ10" s="1">
-        <v>-0.000581109196625881</v>
+        <v>-5.8110919662588095E-4</v>
       </c>
       <c r="AK10" s="1">
-        <v>-0.000606656994436123</v>
+        <v>-6.0665699443612298E-4</v>
       </c>
       <c r="AL10" s="1">
-        <v>-0.000599521251352681</v>
+        <v>-5.9952125135268096E-4</v>
       </c>
       <c r="AM10" s="1">
-        <v>-0.00055269165251189</v>
+        <v>-5.5269165251189002E-4</v>
       </c>
       <c r="AN10" s="1">
-        <v>-0.000444649013208685</v>
+        <v>-4.4464901320868499E-4</v>
       </c>
       <c r="AO10" s="1">
-        <v>-0.000364153299309668</v>
+        <v>-3.6415329930966801E-4</v>
       </c>
       <c r="AP10" s="1">
-        <v>-4.0180798399087e-8</v>
+        <v>-4.0180798399087001E-8</v>
       </c>
       <c r="AQ10" s="1">
-        <v>-4.58358629522698e-19</v>
+        <v>-4.5835862952269796E-19</v>
       </c>
       <c r="AR10" s="1">
-        <v>-1.47439253029075e-7</v>
+        <v>-1.4743925302907501E-7</v>
       </c>
       <c r="AS10" s="1">
-        <v>1.91212348664906e-8</v>
+        <v>1.9121234866490599E-8</v>
       </c>
       <c r="AT10" s="1">
-        <v>0.000105351390922129</v>
+        <v>1.0535139092212901E-4</v>
       </c>
       <c r="AU10" s="1">
-        <v>-8.8714573456006e-19</v>
+        <v>-8.8714573456006008E-19</v>
       </c>
       <c r="AV10" s="1">
-        <v>1.18286097941341e-18</v>
+        <v>1.18286097941341E-18</v>
       </c>
       <c r="AW10" s="1">
-        <v>8.36627062123579e-5</v>
+        <v>8.3662706212357907E-5</v>
       </c>
       <c r="AX10" s="1">
-        <v>7.47628466752797e-5</v>
+        <v>7.4762846675279705E-5</v>
       </c>
       <c r="AY10" s="1">
-        <v>6.71190000368864e-5</v>
+        <v>6.7119000036886407E-5</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.94288718910358e-5</v>
+        <v>5.9428871891035797E-5</v>
       </c>
       <c r="BA10" s="1">
-        <v>4.88852314187682e-5</v>
+        <v>4.8885231418768199E-5</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="11" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -5163,359 +4598,358 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:1">
+    <row r="12" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:1">
+    <row r="13" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:53">
+    <row r="14" spans="1:53" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1">
-        <v>-2.47974023993934e-5</v>
+        <v>-2.4797402399393398E-5</v>
       </c>
       <c r="C14" s="1">
-        <v>-0.00011656220967554</v>
+        <v>-1.1656220967554001E-4</v>
       </c>
       <c r="D14" s="1">
-        <v>-8.43755229627915e-5</v>
+        <v>-8.4375522962791498E-5</v>
       </c>
       <c r="E14" s="1">
-        <v>-5.65583799164178e-5</v>
+        <v>-5.65583799164178E-5</v>
       </c>
       <c r="F14" s="1">
-        <v>-4.0251362581109e-5</v>
+        <v>-4.0251362581109002E-5</v>
       </c>
       <c r="G14" s="1">
-        <v>-3.11580934211103e-5</v>
+        <v>-3.11580934211103E-5</v>
       </c>
       <c r="H14" s="1">
-        <v>-2.77971462548811e-5</v>
+        <v>-2.7797146254881099E-5</v>
       </c>
       <c r="I14" s="1">
-        <v>-2.31930740866038e-5</v>
+        <v>-2.3193074086603802E-5</v>
       </c>
       <c r="J14" s="1">
-        <v>-2.02989979958247e-5</v>
+        <v>-2.0298997995824701E-5</v>
       </c>
       <c r="K14" s="1">
-        <v>-3.21571014593442e-5</v>
+        <v>-3.2157101459344199E-5</v>
       </c>
       <c r="L14" s="1">
-        <v>-3.72884682611351e-5</v>
+        <v>-3.7288468261135101E-5</v>
       </c>
       <c r="M14" s="1">
-        <v>-4.80801854037125e-5</v>
+        <v>-4.8080185403712498E-5</v>
       </c>
       <c r="N14" s="1">
-        <v>-5.96769169681461e-5</v>
+        <v>-5.9676916968146097E-5</v>
       </c>
       <c r="O14" s="1">
-        <v>-8.53603353865768e-5</v>
+        <v>-8.5360335386576797E-5</v>
       </c>
       <c r="P14" s="1">
-        <v>-1.00897817876201e-5</v>
+        <v>-1.0089781787620101E-5</v>
       </c>
       <c r="Q14" s="1">
-        <v>-0.000110546716816114</v>
+        <v>-1.10546716816114E-4</v>
       </c>
       <c r="R14" s="1">
-        <v>0.000227810216614732</v>
+        <v>2.2781021661473201E-4</v>
       </c>
       <c r="S14" s="1">
-        <v>0.000168052073773666</v>
+        <v>1.6805207377366599E-4</v>
       </c>
       <c r="T14" s="1">
-        <v>0.00013407739016884</v>
+        <v>1.3407739016884E-4</v>
       </c>
       <c r="U14" s="1">
-        <v>0.000110163931721064</v>
+        <v>1.10163931721064E-4</v>
       </c>
       <c r="V14" s="1">
-        <v>9.20702445342252e-5</v>
+        <v>9.2070244534225203E-5</v>
       </c>
       <c r="W14" s="1">
-        <v>7.65973296004623e-5</v>
+        <v>7.6597329600462305E-5</v>
       </c>
       <c r="X14" s="1">
-        <v>6.50660699928198e-5</v>
+        <v>6.5066069992819798E-5</v>
       </c>
       <c r="Y14" s="1">
-        <v>5.40935839076861e-5</v>
+        <v>5.4093583907686097E-5</v>
       </c>
       <c r="Z14" s="1">
-        <v>4.73835466228383e-5</v>
+        <v>4.7383546622838299E-5</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.9564044315444e-5</v>
+        <v>1.9564044315443999E-5</v>
       </c>
       <c r="AB14" s="1">
-        <v>1.79559458235213e-5</v>
+        <v>1.79559458235213E-5</v>
       </c>
       <c r="AC14" s="1">
-        <v>1.57419094920188e-5</v>
+        <v>1.57419094920188E-5</v>
       </c>
       <c r="AD14" s="1">
-        <v>8.79715324522802e-6</v>
+        <v>8.7971532452280195E-6</v>
       </c>
       <c r="AE14" s="1">
-        <v>9.91520897622776e-6</v>
+        <v>9.9152089762277603E-6</v>
       </c>
       <c r="AF14" s="1">
-        <v>1.06886633057866e-5</v>
+        <v>1.0688663305786601E-5</v>
       </c>
       <c r="AG14" s="1">
-        <v>1.09273854177443e-5</v>
+        <v>1.09273854177443E-5</v>
       </c>
       <c r="AH14" s="1">
-        <v>1.20687067526248e-5</v>
+        <v>1.20687067526248E-5</v>
       </c>
       <c r="AI14" s="1">
-        <v>1.17868104615558e-5</v>
+        <v>1.1786810461555799E-5</v>
       </c>
       <c r="AJ14" s="1">
-        <v>1.17805308541027e-5</v>
+        <v>1.17805308541027E-5</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.1660230579939e-5</v>
+        <v>1.1660230579938999E-5</v>
       </c>
       <c r="AL14" s="1">
-        <v>1.12475817961085e-5</v>
+        <v>1.12475817961085E-5</v>
       </c>
       <c r="AM14" s="1">
-        <v>1.09868070972172e-5</v>
+        <v>1.0986807097217201E-5</v>
       </c>
       <c r="AN14" s="1">
-        <v>9.88936030916204e-6</v>
+        <v>9.8893603091620396E-6</v>
       </c>
       <c r="AO14" s="1">
-        <v>8.99430711866631e-6</v>
+        <v>8.9943071186663094E-6</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.51178527819083e-9</v>
+        <v>8.5117852781908304E-9</v>
       </c>
       <c r="AQ14" s="1">
-        <v>8.88782505379734e-20</v>
+        <v>8.8878250537973397E-20</v>
       </c>
       <c r="AR14" s="1">
-        <v>1.50598646355974e-8</v>
+        <v>1.50598646355974E-8</v>
       </c>
       <c r="AS14" s="1">
-        <v>-9.23108485783089e-9</v>
+        <v>-9.2310848578308906E-9</v>
       </c>
       <c r="AT14" s="1">
-        <v>5.43498667042032e-5</v>
+        <v>5.4349866704203202E-5</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.77756501075947e-19</v>
+        <v>1.7775650107594701E-19</v>
       </c>
       <c r="AV14" s="1">
-        <v>-2.6663475161392e-19</v>
+        <v>-2.6663475161392002E-19</v>
       </c>
       <c r="AW14" s="1">
-        <v>9.00372970340862e-5</v>
+        <v>9.0037297034086203E-5</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.00010931410040209</v>
+        <v>1.0931410040208999E-4</v>
       </c>
       <c r="AY14" s="1">
-        <v>0.000134702695174376</v>
+        <v>1.3470269517437599E-4</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.000172872555103591</v>
+        <v>1.7287255510359099E-4</v>
       </c>
       <c r="BA14" s="1">
-        <v>0.000213261120826326</v>
+        <v>2.1326112082632601E-4</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="2:53">
+    <row r="15" spans="1:53" ht="14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>-3.52442578369793e-6</v>
+        <v>-3.5244257836979299E-6</v>
       </c>
       <c r="C15" s="1">
-        <v>-1.38122761673976e-7</v>
+        <v>-1.38122761673976E-7</v>
       </c>
       <c r="D15" s="1">
-        <v>-1.31442277150969e-6</v>
+        <v>-1.31442277150969E-6</v>
       </c>
       <c r="E15" s="1">
-        <v>2.894868570308e-6</v>
+        <v>2.894868570308E-6</v>
       </c>
       <c r="F15" s="1">
-        <v>3.13329874126777e-6</v>
+        <v>3.1332987412677701E-6</v>
       </c>
       <c r="G15" s="1">
-        <v>-2.91183440682055e-6</v>
+        <v>-2.9118344068205499E-6</v>
       </c>
       <c r="H15" s="1">
-        <v>-3.85154595714692e-6</v>
+        <v>-3.8515459571469196E-6</v>
       </c>
       <c r="I15" s="1">
-        <v>-3.35101045279817e-6</v>
+        <v>-3.3510104527981701E-6</v>
       </c>
       <c r="J15" s="1">
-        <v>-2.08996873606636e-6</v>
+        <v>-2.0899687360663599E-6</v>
       </c>
       <c r="K15" s="1">
-        <v>-3.92351468230095e-6</v>
+        <v>-3.9235146823009503E-6</v>
       </c>
       <c r="L15" s="1">
-        <v>3.06689271080721e-6</v>
+        <v>3.06689271080721E-6</v>
       </c>
       <c r="M15" s="1">
-        <v>-1.60706985228614e-8</v>
+        <v>-1.60706985228614E-8</v>
       </c>
       <c r="N15" s="1">
-        <v>-1.76451692472472e-7</v>
+        <v>-1.7645169247247201E-7</v>
       </c>
       <c r="O15" s="1">
-        <v>-5.34993315185697e-7</v>
+        <v>-5.34993315185697E-7</v>
       </c>
       <c r="P15" s="1">
-        <v>-2.58334201473448e-6</v>
+        <v>-2.5833420147344801E-6</v>
       </c>
       <c r="Q15" s="1">
-        <v>-1.31456610278542e-6</v>
+        <v>-1.3145661027854199E-6</v>
       </c>
       <c r="R15" s="1">
-        <v>-4.4910509483966e-7</v>
+        <v>-4.4910509483966002E-7</v>
       </c>
       <c r="S15" s="1">
-        <v>-1.71430596584223e-6</v>
+        <v>-1.71430596584223E-6</v>
       </c>
       <c r="T15" s="1">
-        <v>-7.08574677430356e-7</v>
+        <v>-7.0857467743035597E-7</v>
       </c>
       <c r="U15" s="1">
-        <v>-4.44960008053946e-7</v>
+        <v>-4.44960008053946E-7</v>
       </c>
       <c r="V15" s="1">
-        <v>-1.14715921680661e-6</v>
+        <v>-1.1471592168066101E-6</v>
       </c>
       <c r="W15" s="1">
-        <v>-2.57330344975738e-7</v>
+        <v>-2.5733034497573798E-7</v>
       </c>
       <c r="X15" s="1">
-        <v>1.30761844651139e-6</v>
+        <v>1.30761844651139E-6</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.70961648340587e-6</v>
+        <v>1.7096164834058699E-6</v>
       </c>
       <c r="Z15" s="1">
-        <v>-4.02414015361087e-7</v>
+        <v>-4.0241401536108699E-7</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.57046499012716e-7</v>
+        <v>6.5704649901271601E-7</v>
       </c>
       <c r="AB15" s="1">
-        <v>1.46344532127474e-7</v>
+        <v>1.4634453212747401E-7</v>
       </c>
       <c r="AC15" s="1">
-        <v>4.01771362170314e-7</v>
+        <v>4.0177136217031402E-7</v>
       </c>
       <c r="AD15" s="1">
-        <v>8.65372132078272e-7</v>
+        <v>8.6537213207827202E-7</v>
       </c>
       <c r="AE15" s="1">
-        <v>3.38782935930744e-7</v>
+        <v>3.3878293593074402E-7</v>
       </c>
       <c r="AF15" s="1">
-        <v>3.10274197183144e-7</v>
+        <v>3.10274197183144E-7</v>
       </c>
       <c r="AG15" s="1">
-        <v>3.08806094403317e-7</v>
+        <v>3.08806094403317E-7</v>
       </c>
       <c r="AH15" s="1">
-        <v>-4.34167549314848e-7</v>
+        <v>-4.34167549314848E-7</v>
       </c>
       <c r="AI15" s="1">
-        <v>-3.46934952646527e-8</v>
+        <v>-3.4693495264652699E-8</v>
       </c>
       <c r="AJ15" s="1">
-        <v>-8.73734778139086e-9</v>
+        <v>-8.7373477813908606E-9</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.43675647362753e-9</v>
+        <v>2.4367564736275298E-9</v>
       </c>
       <c r="AL15" s="1">
-        <v>-5.6181616309182e-7</v>
+        <v>-5.6181616309182E-7</v>
       </c>
       <c r="AM15" s="1">
-        <v>-6.61950856965866e-7</v>
+        <v>-6.6195085696586596E-7</v>
       </c>
       <c r="AN15" s="1">
-        <v>-2.58125185173332e-7</v>
+        <v>-2.58125185173332E-7</v>
       </c>
       <c r="AO15" s="1">
-        <v>8.84703372752835e-8</v>
+        <v>8.84703372752835E-8</v>
       </c>
       <c r="AP15" s="1">
-        <v>1.13269004444637e-8</v>
+        <v>1.13269004444637E-8</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1.93094278121804e-19</v>
+        <v>1.9309427812180401E-19</v>
       </c>
       <c r="AR15" s="1">
-        <v>-1.29994404085416e-8</v>
+        <v>-1.29994404085416E-8</v>
       </c>
       <c r="AS15" s="1">
-        <v>-1.34942057463062e-8</v>
+        <v>-1.34942057463062E-8</v>
       </c>
       <c r="AT15" s="1">
-        <v>1.01616934879328e-6</v>
+        <v>1.0161693487932799E-6</v>
       </c>
       <c r="AU15" s="1">
-        <v>2.73421497820474e-19</v>
+        <v>2.7342149782047398E-19</v>
       </c>
       <c r="AV15" s="1">
-        <v>-1.93094278121804e-19</v>
+        <v>-1.9309427812180401E-19</v>
       </c>
       <c r="AW15" s="1">
-        <v>-8.56881878823642e-7</v>
+        <v>-8.5688187882364204E-7</v>
       </c>
       <c r="AX15" s="1">
-        <v>-3.64010161245889e-7</v>
+        <v>-3.64010161245889E-7</v>
       </c>
       <c r="AY15" s="1">
-        <v>6.91541834336506e-7</v>
+        <v>6.9154183433650596E-7</v>
       </c>
       <c r="AZ15" s="1">
-        <v>-2.65562051491639e-7</v>
+        <v>-2.6556205149163902E-7</v>
       </c>
       <c r="BA15" s="1">
-        <v>3.89417063079512e-6</v>
+        <v>3.8941706307951203E-6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="49" width="17.625" style="1" customWidth="1"/>
+    <col min="2" max="49" width="17.6328125" style="1" customWidth="1"/>
     <col min="50" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:49">
+    <row r="1" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5664,156 +5098,156 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:49">
+    <row r="2" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="1">
-        <v>-0.000469159252367246</v>
+        <v>-4.69159252367246E-4</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.000177927122801073</v>
+        <v>-1.77927122801073E-4</v>
       </c>
       <c r="D2" s="1">
-        <v>-7.79788184451923e-5</v>
+        <v>-7.7978818445192306E-5</v>
       </c>
       <c r="E2" s="1">
-        <v>-3.67090925831313e-5</v>
+        <v>-3.6709092583131303E-5</v>
       </c>
       <c r="F2" s="1">
-        <v>-1.69032461128779e-5</v>
+        <v>-1.6903246112877901E-5</v>
       </c>
       <c r="G2" s="1">
-        <v>-4.9774681876818e-6</v>
+        <v>-4.9774681876817998E-6</v>
       </c>
       <c r="H2" s="1">
-        <v>4.06041478283855e-6</v>
+        <v>4.0604147828385497E-6</v>
       </c>
       <c r="I2" s="1">
-        <v>1.58966187000953e-5</v>
+        <v>1.5896618700095301E-5</v>
       </c>
       <c r="J2" s="1">
-        <v>3.53696962372344e-5</v>
+        <v>3.5369696237234403E-5</v>
       </c>
       <c r="K2" s="1">
-        <v>7.53267834959501e-5</v>
+        <v>7.5326783495950102E-5</v>
       </c>
       <c r="L2" s="1">
-        <v>0.000172081746584127</v>
+        <v>1.7208174658412699E-4</v>
       </c>
       <c r="M2" s="1">
-        <v>0.000448929560804473</v>
+        <v>4.4892956080447299E-4</v>
       </c>
       <c r="N2" s="1">
-        <v>-0.000115193648442482</v>
+        <v>-1.1519364844248199E-4</v>
       </c>
       <c r="O2" s="1">
-        <v>-0.000116403410198471</v>
+        <v>-1.1640341019847101E-4</v>
       </c>
       <c r="P2" s="1">
-        <v>-0.000106353127526194</v>
+        <v>-1.0635312752619399E-4</v>
       </c>
       <c r="Q2" s="1">
-        <v>-8.64130599891755e-5</v>
+        <v>-8.6413059989175507E-5</v>
       </c>
       <c r="R2" s="1">
-        <v>-7.07150046999741e-5</v>
+        <v>-7.0715004699974096E-5</v>
       </c>
       <c r="S2" s="1">
-        <v>-5.73313236494701e-5</v>
+        <v>-5.7331323649470102E-5</v>
       </c>
       <c r="T2" s="1">
-        <v>-4.83430906242698e-5</v>
+        <v>-4.8343090624269802E-5</v>
       </c>
       <c r="U2" s="1">
-        <v>-3.72748127491371e-5</v>
+        <v>-3.7274812749137098E-5</v>
       </c>
       <c r="V2" s="1">
-        <v>-3.30591674255004e-5</v>
+        <v>-3.3059167425500401E-5</v>
       </c>
       <c r="W2" s="1">
-        <v>-1.20749922013367e-5</v>
+        <v>-1.2074992201336699E-5</v>
       </c>
       <c r="X2" s="1">
-        <v>-1.82253085312996e-5</v>
+        <v>-1.8225308531299598E-5</v>
       </c>
       <c r="Y2" s="1">
-        <v>-1.82486338731449e-5</v>
+        <v>-1.82486338731449E-5</v>
       </c>
       <c r="Z2" s="1">
-        <v>-1.94382298506303e-5</v>
+        <v>-1.9438229850630299E-5</v>
       </c>
       <c r="AA2" s="1">
-        <v>3.05386999580638e-7</v>
+        <v>3.0538699958063799E-7</v>
       </c>
       <c r="AB2" s="1">
-        <v>-2.15199103739908e-5</v>
+        <v>-2.1519910373990801E-5</v>
       </c>
       <c r="AC2" s="1">
-        <v>-1.70452276042462e-5</v>
+        <v>-1.7045227604246201E-5</v>
       </c>
       <c r="AD2" s="1">
-        <v>-1.09991396557122e-5</v>
+        <v>-1.09991396557122E-5</v>
       </c>
       <c r="AE2" s="1">
-        <v>-3.7054339397242e-6</v>
+        <v>-3.7054339397242001E-6</v>
       </c>
       <c r="AF2" s="1">
-        <v>3.50965208961371e-6</v>
+        <v>3.5096520896137099E-6</v>
       </c>
       <c r="AG2" s="1">
-        <v>1.02205304061453e-5</v>
+        <v>1.02205304061453E-5</v>
       </c>
       <c r="AH2" s="1">
-        <v>-1.66434327212789e-5</v>
+        <v>-1.66434327212789E-5</v>
       </c>
       <c r="AI2" s="1">
-        <v>-2.11167377042467e-5</v>
+        <v>-2.1116737704246701E-5</v>
       </c>
       <c r="AJ2" s="1">
-        <v>-2.28840282898413e-5</v>
+        <v>-2.2884028289841301E-5</v>
       </c>
       <c r="AK2" s="1">
-        <v>-1.82718628555583e-5</v>
+        <v>-1.82718628555583E-5</v>
       </c>
       <c r="AL2" s="1">
-        <v>1.7755083285908e-5</v>
+        <v>1.7755083285908001E-5</v>
       </c>
       <c r="AM2" s="1">
-        <v>1.76506773495607e-5</v>
+        <v>1.76506773495607E-5</v>
       </c>
       <c r="AN2" s="1">
-        <v>1.16687635729956e-5</v>
+        <v>1.16687635729956E-5</v>
       </c>
       <c r="AO2" s="1">
-        <v>-3.33225706877938e-5</v>
+        <v>-3.3322570687793799E-5</v>
       </c>
       <c r="AP2" s="1">
-        <v>-4.68098838506761e-5</v>
+        <v>-4.6809883850676098E-5</v>
       </c>
       <c r="AQ2" s="1">
-        <v>-3.74155903428645e-5</v>
+        <v>-3.7415590342864498E-5</v>
       </c>
       <c r="AR2" s="1">
-        <v>-5.67450332398189e-5</v>
+        <v>-5.6745033239818897E-5</v>
       </c>
       <c r="AS2" s="1">
-        <v>-6.9456384511158e-5</v>
+        <v>-6.9456384511158001E-5</v>
       </c>
       <c r="AT2" s="1">
-        <v>-7.60874265221747e-5</v>
+        <v>-7.6087426522174694E-5</v>
       </c>
       <c r="AU2" s="1">
-        <v>-9.22686414546322e-5</v>
+        <v>-9.22686414546322E-5</v>
       </c>
       <c r="AV2" s="1">
-        <v>-0.000100193534690816</v>
+        <v>-1.00193534690816E-4</v>
       </c>
       <c r="AW2" s="1">
-        <v>-8.51142967463673e-5</v>
+        <v>-8.5114296746367305E-5</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:49">
+    <row r="3" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -5962,1050 +5396,1050 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:49">
+    <row r="4" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="1">
-        <v>1.19340180433499e-6</v>
+        <v>1.1934018043349899E-6</v>
       </c>
       <c r="C4" s="1">
-        <v>1.53013018215908e-6</v>
+        <v>1.53013018215908E-6</v>
       </c>
       <c r="D4" s="1">
-        <v>1.94419185293797e-6</v>
+        <v>1.94419185293797E-6</v>
       </c>
       <c r="E4" s="1">
-        <v>2.53259110954265e-6</v>
+        <v>2.5325911095426499E-6</v>
       </c>
       <c r="F4" s="1">
-        <v>3.41852555365316e-6</v>
+        <v>3.41852555365316E-6</v>
       </c>
       <c r="G4" s="1">
-        <v>4.85202286092514e-6</v>
+        <v>4.8520228609251402E-6</v>
       </c>
       <c r="H4" s="1">
-        <v>6.7153018098345e-6</v>
+        <v>6.7153018098345002E-6</v>
       </c>
       <c r="I4" s="1">
-        <v>9.89950850302491e-6</v>
+        <v>9.8995085030249094E-6</v>
       </c>
       <c r="J4" s="1">
-        <v>1.49666857048727e-5</v>
+        <v>1.49666857048727E-5</v>
       </c>
       <c r="K4" s="1">
-        <v>2.32702003462342e-5</v>
+        <v>2.32702003462342E-5</v>
       </c>
       <c r="L4" s="1">
-        <v>3.71459663609126e-5</v>
+        <v>3.7145966360912601E-5</v>
       </c>
       <c r="M4" s="1">
-        <v>6.22563587851643e-5</v>
+        <v>6.2256358785164306E-5</v>
       </c>
       <c r="N4" s="1">
-        <v>0.000605696950212329</v>
+        <v>6.0569695021232904E-4</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000234121423269679</v>
+        <v>2.3412142326967899E-4</v>
       </c>
       <c r="P4" s="1">
-        <v>-3.76338538646457e-5</v>
+        <v>-3.76338538646457E-5</v>
       </c>
       <c r="Q4" s="1">
-        <v>-0.000148175065945508</v>
+        <v>-1.4817506594550799E-4</v>
       </c>
       <c r="R4" s="1">
-        <v>-0.000166909248310706</v>
+        <v>-1.6690924831070601E-4</v>
       </c>
       <c r="S4" s="1">
-        <v>-0.00014651688370557</v>
+        <v>-1.4651688370557E-4</v>
       </c>
       <c r="T4" s="1">
-        <v>-0.000124316303106708</v>
+        <v>-1.2431630310670799E-4</v>
       </c>
       <c r="U4" s="1">
-        <v>-9.82458287443566e-5</v>
+        <v>-9.8245828744356607E-5</v>
       </c>
       <c r="V4" s="1">
-        <v>-8.38968294945653e-5</v>
+        <v>-8.3896829494565305E-5</v>
       </c>
       <c r="W4" s="1">
-        <v>-9.80515143569622e-5</v>
+        <v>-9.8051514356962201E-5</v>
       </c>
       <c r="X4" s="1">
-        <v>-7.09054237894421e-5</v>
+        <v>-7.0905423789442096E-5</v>
       </c>
       <c r="Y4" s="1">
-        <v>-5.08965545786639e-5</v>
+        <v>-5.0896554578663898E-5</v>
       </c>
       <c r="Z4" s="1">
-        <v>-6.91340051940683e-5</v>
+        <v>-6.9134005194068299E-5</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.23708337490328e-8</v>
+        <v>8.2370833749032804E-8</v>
       </c>
       <c r="AB4" s="1">
-        <v>-5.4787000165775e-5</v>
+        <v>-5.4787000165775003E-5</v>
       </c>
       <c r="AC4" s="1">
-        <v>-4.7998041610561e-5</v>
+        <v>-4.7998041610561002E-5</v>
       </c>
       <c r="AD4" s="1">
-        <v>-3.99171776916576e-5</v>
+        <v>-3.9917177691657603E-5</v>
       </c>
       <c r="AE4" s="1">
-        <v>-3.33095587705128e-5</v>
+        <v>-3.3309558770512799E-5</v>
       </c>
       <c r="AF4" s="1">
-        <v>-2.86114576571636e-5</v>
+        <v>-2.8611457657163601E-5</v>
       </c>
       <c r="AG4" s="1">
-        <v>-2.31113650171035e-5</v>
+        <v>-2.3111365017103501E-5</v>
       </c>
       <c r="AH4" s="1">
-        <v>1.91649520872946e-5</v>
+        <v>1.9164952087294601E-5</v>
       </c>
       <c r="AI4" s="1">
-        <v>1.5792613150976e-5</v>
+        <v>1.5792613150976E-5</v>
       </c>
       <c r="AJ4" s="1">
-        <v>1.39403359651528e-5</v>
+        <v>1.39403359651528E-5</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.10148786855027e-5</v>
+        <v>1.10148786855027E-5</v>
       </c>
       <c r="AL4" s="1">
-        <v>-6.87596945644831e-6</v>
+        <v>-6.87596945644831E-6</v>
       </c>
       <c r="AM4" s="1">
-        <v>-6.41927965447341e-6</v>
+        <v>-6.4192796544734099E-6</v>
       </c>
       <c r="AN4" s="1">
-        <v>-5.77763193913982e-6</v>
+        <v>-5.77763193913982E-6</v>
       </c>
       <c r="AO4" s="1">
-        <v>3.50381822546854e-6</v>
+        <v>3.5038182254685398E-6</v>
       </c>
       <c r="AP4" s="1">
-        <v>3.76984953730825e-6</v>
+        <v>3.76984953730825E-6</v>
       </c>
       <c r="AQ4" s="1">
-        <v>3.58650568859262e-6</v>
+        <v>3.58650568859262E-6</v>
       </c>
       <c r="AR4" s="1">
-        <v>3.84680908997637e-6</v>
+        <v>3.8468090899763702E-6</v>
       </c>
       <c r="AS4" s="1">
-        <v>3.94058911163399e-6</v>
+        <v>3.9405891116339898E-6</v>
       </c>
       <c r="AT4" s="1">
-        <v>4.20403303951781e-6</v>
+        <v>4.2040330395178099E-6</v>
       </c>
       <c r="AU4" s="1">
-        <v>3.98678122474476e-6</v>
+        <v>3.9867812247447598E-6</v>
       </c>
       <c r="AV4" s="1">
-        <v>4.34917548889298e-6</v>
+        <v>4.3491754888929801E-6</v>
       </c>
       <c r="AW4" s="1">
-        <v>4.43176967006858e-6</v>
+        <v>4.43176967006858E-6</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:49">
+    <row r="5" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="1">
-        <v>-6.36323535916445e-5</v>
+        <v>-6.3632353591644506E-5</v>
       </c>
       <c r="C5" s="1">
-        <v>-3.82854435658873e-5</v>
+        <v>-3.8285443565887298E-5</v>
       </c>
       <c r="D5" s="1">
-        <v>-2.40516502898503e-5</v>
+        <v>-2.4051650289850299E-5</v>
       </c>
       <c r="E5" s="1">
-        <v>-1.55780972712854e-5</v>
+        <v>-1.5578097271285399E-5</v>
       </c>
       <c r="F5" s="1">
-        <v>-1.05204137468674e-5</v>
+        <v>-1.05204137468674E-5</v>
       </c>
       <c r="G5" s="1">
-        <v>-7.27409502005188e-6</v>
+        <v>-7.2740950200518796E-6</v>
       </c>
       <c r="H5" s="1">
-        <v>-5.38056127126576e-6</v>
+        <v>-5.3805612712657604E-6</v>
       </c>
       <c r="I5" s="1">
-        <v>-3.95140639355973e-6</v>
+        <v>-3.9514063935597302E-6</v>
       </c>
       <c r="J5" s="1">
-        <v>-2.9578035110257e-6</v>
+        <v>-2.9578035110256998E-6</v>
       </c>
       <c r="K5" s="1">
-        <v>-2.24958941700493e-6</v>
+        <v>-2.2495894170049298E-6</v>
       </c>
       <c r="L5" s="1">
-        <v>-1.81228921951031e-6</v>
+        <v>-1.81228921951031E-6</v>
       </c>
       <c r="M5" s="1">
-        <v>-1.44373395000373e-6</v>
+        <v>-1.4437339500037301E-6</v>
       </c>
       <c r="N5" s="1">
-        <v>4.01010922107824e-6</v>
+        <v>4.0101092210782398E-6</v>
       </c>
       <c r="O5" s="1">
-        <v>4.09252793969116e-6</v>
+        <v>4.0925279396911603E-6</v>
       </c>
       <c r="P5" s="1">
-        <v>4.30330112333933e-6</v>
+        <v>4.3033011233393298E-6</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.14821352508408e-6</v>
+        <v>4.1482135250840801E-6</v>
       </c>
       <c r="R5" s="1">
-        <v>4.10752387678199e-6</v>
+        <v>4.10752387678199E-6</v>
       </c>
       <c r="S5" s="1">
-        <v>3.58656239421896e-6</v>
+        <v>3.58656239421896E-6</v>
       </c>
       <c r="T5" s="1">
-        <v>3.96185361456714e-6</v>
+        <v>3.96185361456714E-6</v>
       </c>
       <c r="U5" s="1">
-        <v>3.64687538094362e-6</v>
+        <v>3.6468753809436199E-6</v>
       </c>
       <c r="V5" s="1">
-        <v>3.66210723354612e-6</v>
+        <v>3.6621072335461202E-6</v>
       </c>
       <c r="W5" s="1">
-        <v>5.88625584212192e-6</v>
+        <v>5.8862558421219198E-6</v>
       </c>
       <c r="X5" s="1">
-        <v>6.43494630431842e-6</v>
+        <v>6.4349463043184203E-6</v>
       </c>
       <c r="Y5" s="1">
-        <v>6.96348589532722e-6</v>
+        <v>6.9634858953272204E-6</v>
       </c>
       <c r="Z5" s="1">
-        <v>1.17634338341946e-5</v>
+        <v>1.1763433834194599E-5</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.3230521121145e-7</v>
+        <v>1.3230521121145001E-7</v>
       </c>
       <c r="AB5" s="1">
-        <v>1.63573071962841e-5</v>
+        <v>1.6357307196284099E-5</v>
       </c>
       <c r="AC5" s="1">
-        <v>2.00179843467441e-5</v>
+        <v>2.0017984346744101E-5</v>
       </c>
       <c r="AD5" s="1">
-        <v>2.33875227337086e-5</v>
+        <v>2.3387522733708598E-5</v>
       </c>
       <c r="AE5" s="1">
-        <v>2.79956057554983e-5</v>
+        <v>2.7995605755498298E-5</v>
       </c>
       <c r="AF5" s="1">
-        <v>3.44821069430676e-5</v>
+        <v>3.4482106943067601E-5</v>
       </c>
       <c r="AG5" s="1">
-        <v>4.00124628217696e-5</v>
+        <v>4.00124628217696E-5</v>
       </c>
       <c r="AH5" s="1">
-        <v>-4.66952055340531e-5</v>
+        <v>-4.6695205534053101E-5</v>
       </c>
       <c r="AI5" s="1">
-        <v>-5.38385965556491e-5</v>
+        <v>-5.3838596555649099E-5</v>
       </c>
       <c r="AJ5" s="1">
-        <v>-6.36389688651153e-5</v>
+        <v>-6.3638968865115296E-5</v>
       </c>
       <c r="AK5" s="1">
-        <v>-6.56947624609773e-5</v>
+        <v>-6.5694762460977301E-5</v>
       </c>
       <c r="AL5" s="1">
-        <v>5.10747240522742e-5</v>
+        <v>5.1074724052274198E-5</v>
       </c>
       <c r="AM5" s="1">
-        <v>7.14793102179253e-5</v>
+        <v>7.1479310217925307E-5</v>
       </c>
       <c r="AN5" s="1">
-        <v>9.71518640317407e-5</v>
+        <v>9.7151864031740705E-5</v>
       </c>
       <c r="AO5" s="1">
-        <v>-8.75546570070533e-5</v>
+        <v>-8.7554657007053304E-5</v>
       </c>
       <c r="AP5" s="1">
-        <v>-0.000126583173383919</v>
+        <v>-1.26583173383919E-4</v>
       </c>
       <c r="AQ5" s="1">
-        <v>-0.000105879743056448</v>
+        <v>-1.05879743056448E-4</v>
       </c>
       <c r="AR5" s="1">
-        <v>-0.000153273740463398</v>
+        <v>-1.53273740463398E-4</v>
       </c>
       <c r="AS5" s="1">
-        <v>-0.000169292656322971</v>
+        <v>-1.6929265632297099E-4</v>
       </c>
       <c r="AT5" s="1">
-        <v>-0.00014178885544562</v>
+        <v>-1.4178885544562E-4</v>
       </c>
       <c r="AU5" s="1">
-        <v>-1.19975253130776e-5</v>
+        <v>-1.1997525313077601E-5</v>
       </c>
       <c r="AV5" s="1">
-        <v>0.000268772988081904</v>
+        <v>2.6877298808190402E-4</v>
       </c>
       <c r="AW5" s="1">
-        <v>0.000634355440254346</v>
+        <v>6.3435544025434597E-4</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:49">
+    <row r="6" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="1">
-        <v>3.75532592905169e-6</v>
+        <v>3.75532592905169E-6</v>
       </c>
       <c r="C6" s="1">
-        <v>4.39118101181e-6</v>
+        <v>4.3911810118100001E-6</v>
       </c>
       <c r="D6" s="1">
-        <v>5.63974247617511e-6</v>
+        <v>5.6397424761751104E-6</v>
       </c>
       <c r="E6" s="1">
-        <v>7.11404941952852e-6</v>
+        <v>7.1140494195285204E-6</v>
       </c>
       <c r="F6" s="1">
-        <v>9.17398620244693e-6</v>
+        <v>9.1739862024469296E-6</v>
       </c>
       <c r="G6" s="1">
-        <v>1.19802199679411e-5</v>
+        <v>1.19802199679411E-5</v>
       </c>
       <c r="H6" s="1">
-        <v>1.52572619162306e-5</v>
+        <v>1.52572619162306E-5</v>
       </c>
       <c r="I6" s="1">
-        <v>2.03484580981923e-5</v>
+        <v>2.03484580981923E-5</v>
       </c>
       <c r="J6" s="1">
-        <v>2.6841893922652e-5</v>
+        <v>2.6841893922651999E-5</v>
       </c>
       <c r="K6" s="1">
-        <v>3.55551559184512e-5</v>
+        <v>3.5555155918451199E-5</v>
       </c>
       <c r="L6" s="1">
-        <v>4.60071636687979e-5</v>
+        <v>4.6007163668797897E-5</v>
       </c>
       <c r="M6" s="1">
-        <v>5.89713712811253e-5</v>
+        <v>5.8971371281125299E-5</v>
       </c>
       <c r="N6" s="1">
-        <v>0.000693294038029826</v>
+        <v>6.9329403802982604E-4</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000703645674177457</v>
+        <v>7.0364567417745695E-4</v>
       </c>
       <c r="P6" s="1">
-        <v>0.000778313398733396</v>
+        <v>7.7831339873339601E-4</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.000796193420206189</v>
+        <v>7.9619342020618902E-4</v>
       </c>
       <c r="R6" s="1">
-        <v>0.000832736271525959</v>
+        <v>8.3273627152595899E-4</v>
       </c>
       <c r="S6" s="1">
-        <v>0.000832388654486719</v>
+        <v>8.3238865448671904E-4</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000781793043520354</v>
+        <v>7.8179304352035402E-4</v>
       </c>
       <c r="U6" s="1">
-        <v>0.000506007071247409</v>
+        <v>5.0600707124740896E-4</v>
       </c>
       <c r="V6" s="1">
-        <v>0.00018839602714388</v>
+        <v>1.8839602714387999E-4</v>
       </c>
       <c r="W6" s="1">
-        <v>-0.000647583458548033</v>
+        <v>-6.4758345854803296E-4</v>
       </c>
       <c r="X6" s="1">
-        <v>-0.000356103772962643</v>
+        <v>-3.5610377296264298E-4</v>
       </c>
       <c r="Y6" s="1">
-        <v>-0.000221687570318179</v>
+        <v>-2.21687570318179E-4</v>
       </c>
       <c r="Z6" s="1">
-        <v>-0.000305058245473569</v>
+        <v>-3.0505824547356902E-4</v>
       </c>
       <c r="AA6" s="1">
-        <v>1.64874870660821e-7</v>
+        <v>1.6487487066082099E-7</v>
       </c>
       <c r="AB6" s="1">
-        <v>-0.00020442458117936</v>
+        <v>-2.0442458117935999E-4</v>
       </c>
       <c r="AC6" s="1">
-        <v>-0.000170972791630899</v>
+        <v>-1.7097279163089899E-4</v>
       </c>
       <c r="AD6" s="1">
-        <v>-0.000137933965690221</v>
+        <v>-1.3793396569022101E-4</v>
       </c>
       <c r="AE6" s="1">
-        <v>-0.00011244454378572</v>
+        <v>-1.1244454378571999E-4</v>
       </c>
       <c r="AF6" s="1">
-        <v>-9.56523284460429e-5</v>
+        <v>-9.5652328446042904E-5</v>
       </c>
       <c r="AG6" s="1">
-        <v>-7.68351052239622e-5</v>
+        <v>-7.6835105223962199E-5</v>
       </c>
       <c r="AH6" s="1">
-        <v>6.34477577678907e-5</v>
+        <v>6.3447757767890703E-5</v>
       </c>
       <c r="AI6" s="1">
-        <v>5.23679797033637e-5</v>
+        <v>5.2367979703363698E-5</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4.6095801316882e-5</v>
+        <v>4.6095801316882001E-5</v>
       </c>
       <c r="AK6" s="1">
-        <v>3.6763130806668e-5</v>
+        <v>3.6763130806668001E-5</v>
       </c>
       <c r="AL6" s="1">
-        <v>-2.39377269838911e-5</v>
+        <v>-2.39377269838911E-5</v>
       </c>
       <c r="AM6" s="1">
-        <v>-2.21436836616323e-5</v>
+        <v>-2.2143683661632298E-5</v>
       </c>
       <c r="AN6" s="1">
-        <v>-1.96046233949396e-5</v>
+        <v>-1.96046233949396E-5</v>
       </c>
       <c r="AO6" s="1">
-        <v>1.24526700230188e-5</v>
+        <v>1.2452670023018799E-5</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.31448295911102e-5</v>
+        <v>1.31448295911102E-5</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1.2156671461083e-5</v>
+        <v>1.2156671461083E-5</v>
       </c>
       <c r="AR6" s="1">
-        <v>1.3582787508989e-5</v>
+        <v>1.3582787508989001E-5</v>
       </c>
       <c r="AS6" s="1">
-        <v>1.37761958489231e-5</v>
+        <v>1.37761958489231E-5</v>
       </c>
       <c r="AT6" s="1">
-        <v>1.39993552180259e-5</v>
+        <v>1.39993552180259E-5</v>
       </c>
       <c r="AU6" s="1">
-        <v>1.40131206709322e-5</v>
+        <v>1.40131206709322E-5</v>
       </c>
       <c r="AV6" s="1">
-        <v>1.45288416579065e-5</v>
+        <v>1.45288416579065E-5</v>
       </c>
       <c r="AW6" s="1">
-        <v>1.48565834364437e-5</v>
+        <v>1.48565834364437E-5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:49">
+    <row r="7" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="1">
-        <v>-5.63983904577956e-5</v>
+        <v>-5.6398390457795597E-5</v>
       </c>
       <c r="C7" s="1">
-        <v>-4.49559179599025e-5</v>
+        <v>-4.4955917959902501E-5</v>
       </c>
       <c r="D7" s="1">
-        <v>-3.45916378244181e-5</v>
+        <v>-3.45916378244181E-5</v>
       </c>
       <c r="E7" s="1">
-        <v>-2.60888197173139e-5</v>
+        <v>-2.6088819717313899E-5</v>
       </c>
       <c r="F7" s="1">
-        <v>-1.97683516972258e-5</v>
+        <v>-1.97683516972258E-5</v>
       </c>
       <c r="G7" s="1">
-        <v>-1.50723920575223e-5</v>
+        <v>-1.50723920575223E-5</v>
       </c>
       <c r="H7" s="1">
-        <v>-1.15657372521357e-5</v>
+        <v>-1.1565737252135701E-5</v>
       </c>
       <c r="I7" s="1">
-        <v>-8.88019668968037e-6</v>
+        <v>-8.8801966896803693E-6</v>
       </c>
       <c r="J7" s="1">
-        <v>-7.03671065307948e-6</v>
+        <v>-7.03671065307948E-6</v>
       </c>
       <c r="K7" s="1">
-        <v>-5.51799514500977e-6</v>
+        <v>-5.5179951450097697E-6</v>
       </c>
       <c r="L7" s="1">
-        <v>-4.60848474990084e-6</v>
+        <v>-4.6084847499008404E-6</v>
       </c>
       <c r="M7" s="1">
-        <v>-3.74266726879042e-6</v>
+        <v>-3.7426672687904198E-6</v>
       </c>
       <c r="N7" s="1">
-        <v>1.39242203553464e-5</v>
+        <v>1.3924220355346401E-5</v>
       </c>
       <c r="O7" s="1">
-        <v>1.31512539553278e-5</v>
+        <v>1.3151253955327801E-5</v>
       </c>
       <c r="P7" s="1">
-        <v>1.36229911447298e-5</v>
+        <v>1.3622991144729799E-5</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.28560449647653e-5</v>
+        <v>1.28560449647653E-5</v>
       </c>
       <c r="R7" s="1">
-        <v>1.27997289801548e-5</v>
+        <v>1.27997289801548E-5</v>
       </c>
       <c r="S7" s="1">
-        <v>1.21289260097239e-5</v>
+        <v>1.21289260097239E-5</v>
       </c>
       <c r="T7" s="1">
-        <v>1.22442623885148e-5</v>
+        <v>1.2244262388514801E-5</v>
       </c>
       <c r="U7" s="1">
-        <v>1.14414604181201e-5</v>
+        <v>1.1441460418120101E-5</v>
       </c>
       <c r="V7" s="1">
-        <v>1.16651653760791e-5</v>
+        <v>1.16651653760791E-5</v>
       </c>
       <c r="W7" s="1">
-        <v>1.93858806821722e-5</v>
+        <v>1.9385880682172199E-5</v>
       </c>
       <c r="X7" s="1">
-        <v>2.13835861371067e-5</v>
+        <v>2.13835861371067E-5</v>
       </c>
       <c r="Y7" s="1">
-        <v>2.29981425566367e-5</v>
+        <v>2.2998142556636701E-5</v>
       </c>
       <c r="Z7" s="1">
-        <v>3.74302483759887e-5</v>
+        <v>3.74302483759887E-5</v>
       </c>
       <c r="AA7" s="1">
-        <v>2.53815506497123e-7</v>
+        <v>2.5381550649712298E-7</v>
       </c>
       <c r="AB7" s="1">
-        <v>5.12943625813303e-5</v>
+        <v>5.1294362581330303E-5</v>
       </c>
       <c r="AC7" s="1">
-        <v>6.26464413975923e-5</v>
+        <v>6.2646441397592301E-5</v>
       </c>
       <c r="AD7" s="1">
-        <v>7.33718728904953e-5</v>
+        <v>7.3371872890495304E-5</v>
       </c>
       <c r="AE7" s="1">
-        <v>8.87725344729667e-5</v>
+        <v>8.8772534472966695E-5</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.00011027064425286</v>
+        <v>1.1027064425286E-4</v>
       </c>
       <c r="AG7" s="1">
-        <v>0.000130561535735138</v>
+        <v>1.3056153573513799E-4</v>
       </c>
       <c r="AH7" s="1">
-        <v>-0.000156771732135256</v>
+        <v>-1.5677173213525601E-4</v>
       </c>
       <c r="AI7" s="1">
-        <v>-0.000189214695390515</v>
+        <v>-1.89214695390515E-4</v>
       </c>
       <c r="AJ7" s="1">
-        <v>-0.0002400988003273</v>
+        <v>-2.4009880032729999E-4</v>
       </c>
       <c r="AK7" s="1">
-        <v>-0.000273160383417561</v>
+        <v>-2.7316038341756099E-4</v>
       </c>
       <c r="AL7" s="1">
-        <v>0.000209819934156342</v>
+        <v>2.0981993415634199E-4</v>
       </c>
       <c r="AM7" s="1">
-        <v>0.000339252974339737</v>
+        <v>3.39252974339737E-4</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000605511902053135</v>
+        <v>6.0551190205313497E-4</v>
       </c>
       <c r="AO7" s="1">
-        <v>0.000177717542692791</v>
+        <v>1.7771754269279099E-4</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.000733102160964133</v>
+        <v>7.3310216096413299E-4</v>
       </c>
       <c r="AQ7" s="1">
-        <v>0.000501311210936634</v>
+        <v>5.0131121093663399E-4</v>
       </c>
       <c r="AR7" s="1">
-        <v>0.000808803087426263</v>
+        <v>8.0880308742626303E-4</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000798838163157975</v>
+        <v>7.9883816315797504E-4</v>
       </c>
       <c r="AT7" s="1">
-        <v>0.000756995584758134</v>
+        <v>7.5699558475813395E-4</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.000732373701721168</v>
+        <v>7.3237370172116796E-4</v>
       </c>
       <c r="AV7" s="1">
-        <v>0.000687497477548522</v>
+        <v>6.8749747754852202E-4</v>
       </c>
       <c r="AW7" s="1">
-        <v>0.00066326843890728</v>
+        <v>6.6326843890728005E-4</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:49">
+    <row r="8" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B8" s="1">
-        <v>8.70096467512564e-6</v>
+        <v>8.7009646751256405E-6</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0063128888845e-5</v>
+        <v>1.0063128888844999E-5</v>
       </c>
       <c r="D8" s="1">
-        <v>1.22288836869684e-5</v>
+        <v>1.22288836869684E-5</v>
       </c>
       <c r="E8" s="1">
-        <v>1.4344919780717e-5</v>
+        <v>1.4344919780717001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>1.69325087683496e-5</v>
+        <v>1.69325087683496E-5</v>
       </c>
       <c r="G8" s="1">
-        <v>1.99325718119368e-5</v>
+        <v>1.9932571811936801E-5</v>
       </c>
       <c r="H8" s="1">
-        <v>2.1837918549397e-5</v>
+        <v>2.1837918549397E-5</v>
       </c>
       <c r="I8" s="1">
-        <v>2.46481270826405e-5</v>
+        <v>2.4648127082640501E-5</v>
       </c>
       <c r="J8" s="1">
-        <v>2.6419310600867e-5</v>
+        <v>2.6419310600866999E-5</v>
       </c>
       <c r="K8" s="1">
-        <v>2.6907639892364e-5</v>
+        <v>2.6907639892363999E-5</v>
       </c>
       <c r="L8" s="1">
-        <v>2.47194557409381e-5</v>
+        <v>2.4719455740938099E-5</v>
       </c>
       <c r="M8" s="1">
-        <v>2.08865753459048e-5</v>
+        <v>2.0886575345904799E-5</v>
       </c>
       <c r="N8" s="1">
-        <v>0.000378342644026426</v>
+        <v>3.7834264402642598E-4</v>
       </c>
       <c r="O8" s="1">
-        <v>0.00037282121170892</v>
+        <v>3.7282121170891999E-4</v>
       </c>
       <c r="P8" s="1">
-        <v>0.000399576302564356</v>
+        <v>3.9957630256435601E-4</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.000396955117070987</v>
+        <v>3.9695511707098702E-4</v>
       </c>
       <c r="R8" s="1">
-        <v>0.000409704458258824</v>
+        <v>4.09704458258824E-4</v>
       </c>
       <c r="S8" s="1">
-        <v>0.00041739388238377</v>
+        <v>4.1739388238377001E-4</v>
       </c>
       <c r="T8" s="1">
-        <v>0.00044214661939738</v>
+        <v>4.4214661939737999E-4</v>
       </c>
       <c r="U8" s="1">
-        <v>0.000436942918647787</v>
+        <v>4.3694291864778702E-4</v>
       </c>
       <c r="V8" s="1">
-        <v>0.000477587361696709</v>
+        <v>4.7758736169670901E-4</v>
       </c>
       <c r="W8" s="1">
-        <v>0.000746019301388422</v>
+        <v>7.4601930138842203E-4</v>
       </c>
       <c r="X8" s="1">
-        <v>0.000813514390308696</v>
+        <v>8.1351439030869605E-4</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000459889665010492</v>
+        <v>4.5988966501049199E-4</v>
       </c>
       <c r="Z8" s="1">
-        <v>-0.00144272167208526</v>
+        <v>-1.4427216720852599E-3</v>
       </c>
       <c r="AA8" s="1">
-        <v>-2.33564350587181e-8</v>
+        <v>-2.3356435058718101E-8</v>
       </c>
       <c r="AB8" s="1">
-        <v>-0.000689762188020152</v>
+        <v>-6.8976218802015198E-4</v>
       </c>
       <c r="AC8" s="1">
-        <v>-0.000535983815009122</v>
+        <v>-5.3598381500912201E-4</v>
       </c>
       <c r="AD8" s="1">
-        <v>-0.000412501766897562</v>
+        <v>-4.1250176689756202E-4</v>
       </c>
       <c r="AE8" s="1">
-        <v>-0.00032749188552493</v>
+        <v>-3.2749188552492998E-4</v>
       </c>
       <c r="AF8" s="1">
-        <v>-0.000273736066299014</v>
+        <v>-2.7373606629901398E-4</v>
       </c>
       <c r="AG8" s="1">
-        <v>-0.000217786094017398</v>
+        <v>-2.1778609401739801E-4</v>
       </c>
       <c r="AH8" s="1">
-        <v>0.000178671749253561</v>
+        <v>1.7867174925356101E-4</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000147441752621447</v>
+        <v>1.4744175262144699E-4</v>
       </c>
       <c r="AJ8" s="1">
-        <v>0.000129219981778107</v>
+        <v>1.29219981778107E-4</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.000103001500558715</v>
+        <v>1.03001500558715E-4</v>
       </c>
       <c r="AL8" s="1">
-        <v>-6.89143977856553e-5</v>
+        <v>-6.8914397785655297E-5</v>
       </c>
       <c r="AM8" s="1">
-        <v>-6.33085773952479e-5</v>
+        <v>-6.3308577395247904E-5</v>
       </c>
       <c r="AN8" s="1">
-        <v>-5.60548654420875e-5</v>
+        <v>-5.6054865442087497E-5</v>
       </c>
       <c r="AO8" s="1">
-        <v>3.63929201344682e-5</v>
+        <v>3.6392920134468198E-5</v>
       </c>
       <c r="AP8" s="1">
-        <v>3.7307316162483e-5</v>
+        <v>3.7307316162483001E-5</v>
       </c>
       <c r="AQ8" s="1">
-        <v>3.46556370424595e-5</v>
+        <v>3.46556370424595E-5</v>
       </c>
       <c r="AR8" s="1">
-        <v>3.850888822844e-5</v>
+        <v>3.8508888228440002E-5</v>
       </c>
       <c r="AS8" s="1">
-        <v>3.92476720894808e-5</v>
+        <v>3.9247672089480802E-5</v>
       </c>
       <c r="AT8" s="1">
-        <v>3.9629941181969e-5</v>
+        <v>3.9629941181969E-5</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.24147084861186e-5</v>
+        <v>4.2414708486118599E-5</v>
       </c>
       <c r="AV8" s="1">
-        <v>4.10543633848287e-5</v>
+        <v>4.1054363384828701E-5</v>
       </c>
       <c r="AW8" s="1">
-        <v>4.22303257937511e-5</v>
+        <v>4.2230325793751102E-5</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:49">
+    <row r="9" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="1">
-        <v>-2.13091008013019e-5</v>
+        <v>-2.1309100801301902E-5</v>
       </c>
       <c r="C9" s="1">
-        <v>-2.59058245345723e-5</v>
+        <v>-2.5905824534572299E-5</v>
       </c>
       <c r="D9" s="1">
-        <v>-2.82603454439678e-5</v>
+        <v>-2.82603454439678E-5</v>
       </c>
       <c r="E9" s="1">
-        <v>-2.81082376680549e-5</v>
+        <v>-2.81082376680549E-5</v>
       </c>
       <c r="F9" s="1">
-        <v>-2.64686874128719e-5</v>
+        <v>-2.6468687412871899E-5</v>
       </c>
       <c r="G9" s="1">
-        <v>-2.33950928370182e-5</v>
+        <v>-2.3395092837018199E-5</v>
       </c>
       <c r="H9" s="1">
-        <v>-2.1386529308452e-5</v>
+        <v>-2.1386529308452E-5</v>
       </c>
       <c r="I9" s="1">
-        <v>-1.86562857783053e-5</v>
+        <v>-1.8656285778305299E-5</v>
       </c>
       <c r="J9" s="1">
-        <v>-1.6078464834949e-5</v>
+        <v>-1.6078464834948999E-5</v>
       </c>
       <c r="K9" s="1">
-        <v>-1.3527324043418e-5</v>
+        <v>-1.3527324043418E-5</v>
       </c>
       <c r="L9" s="1">
-        <v>-1.18935871842521e-5</v>
+        <v>-1.1893587184252101E-5</v>
       </c>
       <c r="M9" s="1">
-        <v>-9.99648866103662e-6</v>
+        <v>-9.99648866103662E-6</v>
       </c>
       <c r="N9" s="1">
-        <v>4.27207549678435e-5</v>
+        <v>4.2720754967843502E-5</v>
       </c>
       <c r="O9" s="1">
-        <v>4.07771353866697e-5</v>
+        <v>4.0777135386669702E-5</v>
       </c>
       <c r="P9" s="1">
-        <v>4.18000198388465e-5</v>
+        <v>4.1800019838846501E-5</v>
       </c>
       <c r="Q9" s="1">
-        <v>3.9759113790712e-5</v>
+        <v>3.9759113790711998E-5</v>
       </c>
       <c r="R9" s="1">
-        <v>3.93249928861668e-5</v>
+        <v>3.9324992886166803E-5</v>
       </c>
       <c r="S9" s="1">
-        <v>3.80297107335694e-5</v>
+        <v>3.8029710733569401E-5</v>
       </c>
       <c r="T9" s="1">
-        <v>3.80976517857804e-5</v>
+        <v>3.8097651785780402E-5</v>
       </c>
       <c r="U9" s="1">
-        <v>3.53832209540902e-5</v>
+        <v>3.5383220954090199E-5</v>
       </c>
       <c r="V9" s="1">
-        <v>3.57760474327719e-5</v>
+        <v>3.5776047432771901E-5</v>
       </c>
       <c r="W9" s="1">
-        <v>5.73030019931875e-5</v>
+        <v>5.7303001993187499E-5</v>
       </c>
       <c r="X9" s="1">
-        <v>6.41281860226249e-5</v>
+        <v>6.4128186022624896E-5</v>
       </c>
       <c r="Y9" s="1">
-        <v>7.04223940501142e-5</v>
+        <v>7.0422394050114205E-5</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.000112315303629286</v>
+        <v>1.12315303629286E-4</v>
       </c>
       <c r="AA9" s="1">
-        <v>-5.10877939546222e-8</v>
+        <v>-5.1087793954622203E-8</v>
       </c>
       <c r="AB9" s="1">
-        <v>0.000154367093865878</v>
+        <v>1.54367093865878E-4</v>
       </c>
       <c r="AC9" s="1">
-        <v>0.000188078528661688</v>
+        <v>1.8807852866168799E-4</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000221605003812915</v>
+        <v>2.2160500381291501E-4</v>
       </c>
       <c r="AE9" s="1">
-        <v>0.000269034727232542</v>
+        <v>2.6903472723254201E-4</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.000340193832485303</v>
+        <v>3.40193832485303E-4</v>
       </c>
       <c r="AG9" s="1">
-        <v>0.000413409880756313</v>
+        <v>4.1340988075631299E-4</v>
       </c>
       <c r="AH9" s="1">
-        <v>-0.000518929940325204</v>
+        <v>-5.1892994032520399E-4</v>
       </c>
       <c r="AI9" s="1">
-        <v>-0.000670879655444875</v>
+        <v>-6.7087965544487501E-4</v>
       </c>
       <c r="AJ9" s="1">
-        <v>-0.000961221944573249</v>
+        <v>-9.61221944573249E-4</v>
       </c>
       <c r="AK9" s="1">
-        <v>-0.00134347331430719</v>
+        <v>-1.3434733143071901E-3</v>
       </c>
       <c r="AL9" s="1">
-        <v>-0.000430546171029732</v>
+        <v>-4.3054617102973201E-4</v>
       </c>
       <c r="AM9" s="1">
-        <v>-0.00082010222116595</v>
+        <v>-8.2010222116594999E-4</v>
       </c>
       <c r="AN9" s="1">
-        <v>-0.000749264359102346</v>
+        <v>-7.4926435910234598E-4</v>
       </c>
       <c r="AO9" s="1">
-        <v>0.00050241159931634</v>
+        <v>5.0241159931633996E-4</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.000449354173572211</v>
+        <v>4.4935417357221097E-4</v>
       </c>
       <c r="AQ9" s="1">
-        <v>0.000477033949120593</v>
+        <v>4.7703394912059302E-4</v>
       </c>
       <c r="AR9" s="1">
-        <v>0.000435820862653613</v>
+        <v>4.35820862653613E-4</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.00041972688017676</v>
+        <v>4.1972688017676002E-4</v>
       </c>
       <c r="AT9" s="1">
-        <v>0.000408323696769488</v>
+        <v>4.0832369676948801E-4</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.000407011350982962</v>
+        <v>4.0701135098296202E-4</v>
       </c>
       <c r="AV9" s="1">
-        <v>0.000391065076349069</v>
+        <v>3.91065076349069E-4</v>
       </c>
       <c r="AW9" s="1">
-        <v>0.000388894300639035</v>
+        <v>3.8889430063903502E-4</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:49">
+    <row r="10" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="1">
-        <v>2.74004184571368e-5</v>
+        <v>2.7400418457136799E-5</v>
       </c>
       <c r="C10" s="1">
-        <v>2.3156459301695e-5</v>
+        <v>2.3156459301695001E-5</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0491811350612e-5</v>
+        <v>2.0491811350612002E-5</v>
       </c>
       <c r="E10" s="1">
-        <v>1.64450791324356e-5</v>
+        <v>1.6445079132435599E-5</v>
       </c>
       <c r="F10" s="1">
-        <v>1.2367324624644e-5</v>
+        <v>1.2367324624644E-5</v>
       </c>
       <c r="G10" s="1">
-        <v>6.17443532895553e-6</v>
+        <v>6.1744353289555302E-6</v>
       </c>
       <c r="H10" s="1">
-        <v>-2.78683574676674e-6</v>
+        <v>-2.7868357467667402E-6</v>
       </c>
       <c r="I10" s="1">
-        <v>-1.08789420425674e-5</v>
+        <v>-1.08789420425674E-5</v>
       </c>
       <c r="J10" s="1">
-        <v>-1.69061604534702e-5</v>
+        <v>-1.6906160453470199E-5</v>
       </c>
       <c r="K10" s="1">
-        <v>-2.14679848125217e-5</v>
+        <v>-2.1467984812521699E-5</v>
       </c>
       <c r="L10" s="1">
-        <v>-2.35340313759777e-5</v>
+        <v>-2.3534031375977702E-5</v>
       </c>
       <c r="M10" s="1">
-        <v>-2.58030226029107e-5</v>
+        <v>-2.58030226029107E-5</v>
       </c>
       <c r="N10" s="1">
-        <v>0.00030238633821701</v>
+        <v>3.0238633821700998E-4</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000290753862452667</v>
+        <v>2.9075386245266699E-4</v>
       </c>
       <c r="P10" s="1">
-        <v>0.000303123870606152</v>
+        <v>3.0312387060615198E-4</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.000291405809301544</v>
+        <v>2.9140580930154403E-4</v>
       </c>
       <c r="R10" s="1">
-        <v>0.000290465125661862</v>
+        <v>2.90465125661862E-4</v>
       </c>
       <c r="S10" s="1">
-        <v>0.000283085399575431</v>
+        <v>2.8308539957543099E-4</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000285211626412365</v>
+        <v>2.8521162641236502E-4</v>
       </c>
       <c r="U10" s="1">
-        <v>0.000267855418178134</v>
+        <v>2.67855418178134E-4</v>
       </c>
       <c r="V10" s="1">
-        <v>0.000275189269427557</v>
+        <v>2.7518926942755699E-4</v>
       </c>
       <c r="W10" s="1">
-        <v>0.000447747894868994</v>
+        <v>4.4774789486899398E-4</v>
       </c>
       <c r="X10" s="1">
-        <v>0.00051589180360256</v>
+        <v>5.1589180360256002E-4</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000592437062876555</v>
+        <v>5.92437062876555E-4</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.000919866435972783</v>
+        <v>9.1986643597278303E-4</v>
       </c>
       <c r="AA10" s="1">
-        <v>-1.23417339643238e-8</v>
+        <v>-1.23417339643238E-8</v>
       </c>
       <c r="AB10" s="1">
-        <v>0.000772432079254214</v>
+        <v>7.7243207925421396E-4</v>
       </c>
       <c r="AC10" s="1">
-        <v>0.000475135442490179</v>
+        <v>4.75135442490179E-4</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000152502582354365</v>
+        <v>1.5250258235436501E-4</v>
       </c>
       <c r="AE10" s="1">
-        <v>2.26898584836636e-5</v>
+        <v>2.2689858483663602E-5</v>
       </c>
       <c r="AF10" s="1">
-        <v>-3.09611417357246e-5</v>
+        <v>-3.0961141735724601E-5</v>
       </c>
       <c r="AG10" s="1">
-        <v>-0.000153894680965656</v>
+        <v>-1.53894680965656E-4</v>
       </c>
       <c r="AH10" s="1">
-        <v>0.00045193354434566</v>
+        <v>4.5193354434565998E-4</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000749317607138141</v>
+        <v>7.4931760713814097E-4</v>
       </c>
       <c r="AJ10" s="1">
-        <v>0.000932281955737</v>
+        <v>9.3228195573700004E-4</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.000863485036129921</v>
+        <v>8.6348503612992099E-4</v>
       </c>
       <c r="AL10" s="1">
-        <v>-0.000589612411292356</v>
+        <v>-5.8961241129235596E-4</v>
       </c>
       <c r="AM10" s="1">
-        <v>-0.000515465220169125</v>
+        <v>-5.1546522016912501E-4</v>
       </c>
       <c r="AN10" s="1">
-        <v>-0.000438852334506283</v>
+        <v>-4.3885233450628302E-4</v>
       </c>
       <c r="AO10" s="1">
-        <v>0.000281518277610757</v>
+        <v>2.81518277610757E-4</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.000282068082385926</v>
+        <v>2.82068082385926E-4</v>
       </c>
       <c r="AQ10" s="1">
-        <v>0.000265566114361121</v>
+        <v>2.6556611436112101E-4</v>
       </c>
       <c r="AR10" s="1">
-        <v>0.000287707634309225</v>
+        <v>2.8770763430922499E-4</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000289361604992104</v>
+        <v>2.8936160499210402E-4</v>
       </c>
       <c r="AT10" s="1">
-        <v>0.000291784282755401</v>
+        <v>2.9178428275540103E-4</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.000299414564767019</v>
+        <v>2.9941456476701898E-4</v>
       </c>
       <c r="AV10" s="1">
-        <v>0.000296573940611288</v>
+        <v>2.9657394061128798E-4</v>
       </c>
       <c r="AW10" s="1">
-        <v>0.000302696154042037</v>
+        <v>3.0269615404203702E-4</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:49">
+    <row r="11" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
@@ -7154,314 +6588,314 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:1">
+    <row r="12" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:1">
+    <row r="13" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:49">
+    <row r="14" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B14" s="1">
-        <v>8.79568685875871e-5</v>
+        <v>8.7956868587587105E-5</v>
       </c>
       <c r="C14" s="1">
-        <v>5.48615677101523e-5</v>
+        <v>5.4861567710152301E-5</v>
       </c>
       <c r="D14" s="1">
-        <v>3.00808733361453e-5</v>
+        <v>3.0080873336145301E-5</v>
       </c>
       <c r="E14" s="1">
-        <v>2.04475746327431e-5</v>
+        <v>2.0447574632743101E-5</v>
       </c>
       <c r="F14" s="1">
-        <v>1.57426877122481e-5</v>
+        <v>1.57426877122481E-5</v>
       </c>
       <c r="G14" s="1">
-        <v>4.33565631486761e-6</v>
+        <v>4.3356563148676103E-6</v>
       </c>
       <c r="H14" s="1">
-        <v>3.61545572346492e-6</v>
+        <v>3.6154557234649198E-6</v>
       </c>
       <c r="I14" s="1">
-        <v>7.54120707198087e-7</v>
+        <v>7.5412070719808697E-7</v>
       </c>
       <c r="J14" s="1">
-        <v>-1.0964974293038e-5</v>
+        <v>-1.0964974293038E-5</v>
       </c>
       <c r="K14" s="1">
-        <v>-1.91036911091598e-5</v>
+        <v>-1.9103691109159799E-5</v>
       </c>
       <c r="L14" s="1">
-        <v>-4.70782028136106e-5</v>
+        <v>-4.7078202813610597E-5</v>
       </c>
       <c r="M14" s="1">
-        <v>-7.5810273799705e-5</v>
+        <v>-7.5810273799705003E-5</v>
       </c>
       <c r="N14" s="1">
-        <v>4.93792100756554e-5</v>
+        <v>4.9379210075655401E-5</v>
       </c>
       <c r="O14" s="1">
-        <v>2.88688999870069e-5</v>
+        <v>2.8868899987006902E-5</v>
       </c>
       <c r="P14" s="1">
-        <v>1.97064731834877e-5</v>
+        <v>1.97064731834877E-5</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.22888374335712e-5</v>
+        <v>1.22888374335712E-5</v>
       </c>
       <c r="R14" s="1">
-        <v>8.66417454620129e-6</v>
+        <v>8.6641745462012895E-6</v>
       </c>
       <c r="S14" s="1">
-        <v>5.24447709551912e-6</v>
+        <v>5.2444770955191202E-6</v>
       </c>
       <c r="T14" s="1">
-        <v>2.62077179639117e-6</v>
+        <v>2.6207717963911701E-6</v>
       </c>
       <c r="U14" s="1">
-        <v>1.73930251108273e-6</v>
+        <v>1.73930251108273E-6</v>
       </c>
       <c r="V14" s="1">
-        <v>1.18615665687578e-7</v>
+        <v>1.18615665687578E-7</v>
       </c>
       <c r="W14" s="1">
-        <v>3.73285355688884e-5</v>
+        <v>3.7328535568888397E-5</v>
       </c>
       <c r="X14" s="1">
-        <v>2.62908798382653e-5</v>
+        <v>2.6290879838265301E-5</v>
       </c>
       <c r="Y14" s="1">
-        <v>1.73754691117327e-5</v>
+        <v>1.7375469111732701E-5</v>
       </c>
       <c r="Z14" s="1">
-        <v>4.74807165163741e-5</v>
+        <v>4.7480716516374098E-5</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.83090993659822e-8</v>
+        <v>4.8309099365982199E-8</v>
       </c>
       <c r="AB14" s="1">
-        <v>2.98435885318125e-5</v>
+        <v>2.9843588531812499E-5</v>
       </c>
       <c r="AC14" s="1">
-        <v>2.17298860199924e-5</v>
+        <v>2.1729886019992399E-5</v>
       </c>
       <c r="AD14" s="1">
-        <v>1.31673501271896e-5</v>
+        <v>1.31673501271896E-5</v>
       </c>
       <c r="AE14" s="1">
-        <v>4.73217365593345e-6</v>
+        <v>4.7321736559334498E-6</v>
       </c>
       <c r="AF14" s="1">
-        <v>-3.36964443630462e-6</v>
+        <v>-3.3696444363046199E-6</v>
       </c>
       <c r="AG14" s="1">
-        <v>-1.15717131674889e-5</v>
+        <v>-1.15717131674889E-5</v>
       </c>
       <c r="AH14" s="1">
-        <v>1.94036606251107e-5</v>
+        <v>1.94036606251107E-5</v>
       </c>
       <c r="AI14" s="1">
-        <v>2.72680186156349e-5</v>
+        <v>2.7268018615634899E-5</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3.6926198757083e-5</v>
+        <v>3.6926198757083002E-5</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.28089375118029e-5</v>
+        <v>4.2808937511802898E-5</v>
       </c>
       <c r="AL14" s="1">
-        <v>-1.63146740043017e-5</v>
+        <v>-1.6314674004301701E-5</v>
       </c>
       <c r="AM14" s="1">
-        <v>-2.51034806150525e-5</v>
+        <v>-2.51034806150525E-5</v>
       </c>
       <c r="AN14" s="1">
-        <v>-3.516686370682e-5</v>
+        <v>-3.5166863706820001E-5</v>
       </c>
       <c r="AO14" s="1">
-        <v>-5.12180746421793e-7</v>
+        <v>-5.1218074642179295E-7</v>
       </c>
       <c r="AP14" s="1">
-        <v>1.88973987786682e-6</v>
+        <v>1.8897398778668201E-6</v>
       </c>
       <c r="AQ14" s="1">
-        <v>8.75851060790228e-7</v>
+        <v>8.7585106079022804E-7</v>
       </c>
       <c r="AR14" s="1">
-        <v>4.01347528711541e-6</v>
+        <v>4.0134752871154104E-6</v>
       </c>
       <c r="AS14" s="1">
-        <v>6.19841767921939e-6</v>
+        <v>6.1984176792193901E-6</v>
       </c>
       <c r="AT14" s="1">
-        <v>1.30197525681194e-5</v>
+        <v>1.30197525681194E-5</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.80308233146694e-5</v>
+        <v>1.8030823314669399E-5</v>
       </c>
       <c r="AV14" s="1">
-        <v>2.82920862850307e-5</v>
+        <v>2.8292086285030701E-5</v>
       </c>
       <c r="AW14" s="1">
-        <v>4.8338941935474e-5</v>
+        <v>4.8338941935474E-5</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="2:49">
+    <row r="15" spans="1:49" ht="14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>4.18860932615037e-6</v>
+        <v>4.1886093261503697E-6</v>
       </c>
       <c r="C15" s="1">
-        <v>1.28134344703964e-6</v>
+        <v>1.2813434470396399E-6</v>
       </c>
       <c r="D15" s="1">
-        <v>1.43244472665142e-6</v>
+        <v>1.4324447266514201E-6</v>
       </c>
       <c r="E15" s="1">
-        <v>1.62794703005949e-6</v>
+        <v>1.6279470300594899E-6</v>
       </c>
       <c r="F15" s="1">
-        <v>2.20140683527851e-6</v>
+        <v>2.2014068352785101E-6</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.02099402527931e-6</v>
+        <v>-1.02099402527931E-6</v>
       </c>
       <c r="H15" s="1">
-        <v>-3.80045481661095e-6</v>
+        <v>-3.8004548166109499E-6</v>
       </c>
       <c r="I15" s="1">
-        <v>-5.88851616022288e-7</v>
+        <v>-5.88851616022288E-7</v>
       </c>
       <c r="J15" s="1">
-        <v>-2.16323882235312e-6</v>
+        <v>-2.1632388223531199E-6</v>
       </c>
       <c r="K15" s="1">
-        <v>-3.41661655925959e-6</v>
+        <v>-3.4166165592595898E-6</v>
       </c>
       <c r="L15" s="1">
-        <v>1.32666489278593e-6</v>
+        <v>1.32666489278593E-6</v>
       </c>
       <c r="M15" s="1">
-        <v>3.04982577108265e-6</v>
+        <v>3.0498257710826501E-6</v>
       </c>
       <c r="N15" s="1">
-        <v>-4.47478658296543e-7</v>
+        <v>-4.4747865829654299E-7</v>
       </c>
       <c r="O15" s="1">
-        <v>-1.67192680628761e-6</v>
+        <v>-1.6719268062876099E-6</v>
       </c>
       <c r="P15" s="1">
-        <v>8.81665373799975e-8</v>
+        <v>8.8166537379997495E-8</v>
       </c>
       <c r="Q15" s="1">
-        <v>1.59069271252771e-6</v>
+        <v>1.5906927125277101E-6</v>
       </c>
       <c r="R15" s="1">
-        <v>-1.57340864808655e-7</v>
+        <v>-1.5734086480865501E-7</v>
       </c>
       <c r="S15" s="1">
-        <v>4.32400920642099e-7</v>
+        <v>4.3240092064209903E-7</v>
       </c>
       <c r="T15" s="1">
-        <v>8.28552579012968e-7</v>
+        <v>8.28552579012968E-7</v>
       </c>
       <c r="U15" s="1">
-        <v>1.09852475687261e-6</v>
+        <v>1.0985247568726099E-6</v>
       </c>
       <c r="V15" s="1">
-        <v>-5.86700422964112e-8</v>
+        <v>-5.8670042296411201E-8</v>
       </c>
       <c r="W15" s="1">
-        <v>8.41497513394793e-7</v>
+        <v>8.4149751339479305E-7</v>
       </c>
       <c r="X15" s="1">
-        <v>1.48221625779352e-6</v>
+        <v>1.4822162577935199E-6</v>
       </c>
       <c r="Y15" s="1">
-        <v>9.58084249403683e-7</v>
+        <v>9.580842494036829E-7</v>
       </c>
       <c r="Z15" s="1">
-        <v>-9.14586087171699e-7</v>
+        <v>-9.1458608717169901E-7</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.64760141997358e-8</v>
+        <v>1.6476014199735801E-8</v>
       </c>
       <c r="AB15" s="1">
-        <v>-1.27993700130385e-6</v>
+        <v>-1.2799370013038501E-6</v>
       </c>
       <c r="AC15" s="1">
-        <v>-2.09838457284439e-6</v>
+        <v>-2.0983845728443898E-6</v>
       </c>
       <c r="AD15" s="1">
-        <v>-2.29909400775222e-6</v>
+        <v>-2.29909400775222E-6</v>
       </c>
       <c r="AE15" s="1">
-        <v>-2.58898022661963e-6</v>
+        <v>-2.5889802266196302E-6</v>
       </c>
       <c r="AF15" s="1">
-        <v>-1.78140863376421e-6</v>
+        <v>-1.7814086337642099E-6</v>
       </c>
       <c r="AG15" s="1">
-        <v>-1.67350062676878e-6</v>
+        <v>-1.6735006267687799E-6</v>
       </c>
       <c r="AH15" s="1">
-        <v>1.99068330475829e-6</v>
+        <v>1.99068330475829E-6</v>
       </c>
       <c r="AI15" s="1">
-        <v>1.43604164299579e-6</v>
+        <v>1.4360416429957901E-6</v>
       </c>
       <c r="AJ15" s="1">
-        <v>2.63917967968517e-6</v>
+        <v>2.6391796796851702E-6</v>
       </c>
       <c r="AK15" s="1">
-        <v>2.06090932633478e-6</v>
+        <v>2.0609093263347798E-6</v>
       </c>
       <c r="AL15" s="1">
-        <v>-1.29539137675795e-8</v>
+        <v>-1.29539137675795E-8</v>
       </c>
       <c r="AM15" s="1">
-        <v>-8.48640044757816e-7</v>
+        <v>-8.4864004475781603E-7</v>
       </c>
       <c r="AN15" s="1">
-        <v>-1.4004697795493e-6</v>
+        <v>-1.4004697795493E-6</v>
       </c>
       <c r="AO15" s="1">
-        <v>-9.6662836101038e-7</v>
+        <v>-9.6662836101038002E-7</v>
       </c>
       <c r="AP15" s="1">
-        <v>-1.70908576147551e-6</v>
+        <v>-1.7090857614755101E-6</v>
       </c>
       <c r="AQ15" s="1">
-        <v>5.70237241252905e-7</v>
+        <v>5.7023724125290503E-7</v>
       </c>
       <c r="AR15" s="1">
-        <v>-1.37423205112009e-7</v>
+        <v>-1.3742320511200899E-7</v>
       </c>
       <c r="AS15" s="1">
-        <v>-5.95403220641291e-7</v>
+        <v>-5.9540322064129095E-7</v>
       </c>
       <c r="AT15" s="1">
-        <v>-1.93049228599381e-7</v>
+        <v>-1.93049228599381E-7</v>
       </c>
       <c r="AU15" s="1">
-        <v>-2.12267151694411e-6</v>
+        <v>-2.1226715169441102E-6</v>
       </c>
       <c r="AV15" s="1">
-        <v>-9.91433216955072e-7</v>
+        <v>-9.9143321695507194E-7</v>
       </c>
       <c r="AW15" s="1">
-        <v>-4.25034061316778e-6</v>
+        <v>-4.2503406131677799E-6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>